--- a/db/students.xlsx
+++ b/db/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1031">
   <si>
     <t>Last Name</t>
   </si>
@@ -1500,9 +1500,6 @@
   </si>
   <si>
     <t>Piccolo</t>
-  </si>
-  <si>
-    <t>Graduate</t>
   </si>
   <si>
     <t>Adam</t>
@@ -3499,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P360" sqref="P360"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,13 +3579,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="2">
         <v>2017</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3622,13 +3619,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E6" s="2">
         <v>2020</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3662,13 +3659,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E8" s="2">
         <v>2017</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3891,7 +3888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3922,13 +3919,13 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E21" s="2">
         <v>2020</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4222,13 +4219,13 @@
         <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E36" s="2">
         <v>2020</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4882,13 +4879,13 @@
         <v>201</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E69" s="2">
         <v>2020</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6082,7 +6079,7 @@
         <v>390</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E129" s="2">
         <v>2020</v>
@@ -6542,7 +6539,7 @@
         <v>491</v>
       </c>
       <c r="D152" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E152">
         <v>2020</v>
@@ -6562,7 +6559,7 @@
         <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E153">
         <v>2019</v>
@@ -6582,7 +6579,7 @@
         <v>491</v>
       </c>
       <c r="D154" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E154">
         <v>2020</v>
@@ -6602,7 +6599,7 @@
         <v>491</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E155" s="2">
         <v>2018</v>
@@ -6622,7 +6619,7 @@
         <v>491</v>
       </c>
       <c r="D156" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E156">
         <v>2017</v>
@@ -6642,7 +6639,7 @@
         <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E157">
         <v>2018</v>
@@ -6662,7 +6659,7 @@
         <v>491</v>
       </c>
       <c r="D158" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E158">
         <v>2017</v>
@@ -6682,7 +6679,7 @@
         <v>491</v>
       </c>
       <c r="D159" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E159">
         <v>2020</v>
@@ -6702,7 +6699,7 @@
         <v>491</v>
       </c>
       <c r="D160" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E160">
         <v>2019</v>
@@ -6722,7 +6719,7 @@
         <v>491</v>
       </c>
       <c r="D161" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E161">
         <v>2020</v>
@@ -6742,7 +6739,7 @@
         <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E162">
         <v>2018</v>
@@ -6762,7 +6759,7 @@
         <v>491</v>
       </c>
       <c r="D163" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E163">
         <v>2017</v>
@@ -6782,7 +6779,7 @@
         <v>491</v>
       </c>
       <c r="D164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E164">
         <v>2017</v>
@@ -6802,7 +6799,7 @@
         <v>491</v>
       </c>
       <c r="D165" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E165">
         <v>2020</v>
@@ -6822,7 +6819,7 @@
         <v>491</v>
       </c>
       <c r="D166" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E166">
         <v>2017</v>
@@ -6833,7 +6830,7 @@
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B167" t="s">
         <v>429</v>
@@ -6842,7 +6839,7 @@
         <v>491</v>
       </c>
       <c r="D167" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E167">
         <v>2017</v>
@@ -6862,7 +6859,7 @@
         <v>491</v>
       </c>
       <c r="D168" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E168">
         <v>2020</v>
@@ -6882,7 +6879,7 @@
         <v>491</v>
       </c>
       <c r="D169" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E169">
         <v>2018</v>
@@ -6902,13 +6899,13 @@
         <v>491</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E170" s="2">
         <v>2020</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6922,7 +6919,7 @@
         <v>491</v>
       </c>
       <c r="D171" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E171">
         <v>2019</v>
@@ -6942,7 +6939,7 @@
         <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E172">
         <v>2020</v>
@@ -6962,7 +6959,7 @@
         <v>491</v>
       </c>
       <c r="D173" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E173">
         <v>2020</v>
@@ -6982,7 +6979,7 @@
         <v>491</v>
       </c>
       <c r="D174" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E174">
         <v>2018</v>
@@ -7002,7 +6999,7 @@
         <v>491</v>
       </c>
       <c r="D175" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E175">
         <v>2019</v>
@@ -7022,7 +7019,7 @@
         <v>491</v>
       </c>
       <c r="D176" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E176">
         <v>2019</v>
@@ -7042,7 +7039,7 @@
         <v>491</v>
       </c>
       <c r="D177" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E177">
         <v>2018</v>
@@ -7062,7 +7059,7 @@
         <v>491</v>
       </c>
       <c r="D178" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E178">
         <v>2017</v>
@@ -7082,7 +7079,7 @@
         <v>491</v>
       </c>
       <c r="D179" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E179">
         <v>2020</v>
@@ -7102,7 +7099,7 @@
         <v>491</v>
       </c>
       <c r="D180" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E180">
         <v>2020</v>
@@ -7122,7 +7119,7 @@
         <v>491</v>
       </c>
       <c r="D181" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E181">
         <v>2017</v>
@@ -7142,7 +7139,7 @@
         <v>491</v>
       </c>
       <c r="D182" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E182">
         <v>2017</v>
@@ -7162,7 +7159,7 @@
         <v>491</v>
       </c>
       <c r="D183" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E183">
         <v>2018</v>
@@ -7182,7 +7179,7 @@
         <v>491</v>
       </c>
       <c r="D184" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E184">
         <v>2020</v>
@@ -7202,7 +7199,7 @@
         <v>491</v>
       </c>
       <c r="D185" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E185">
         <v>2019</v>
@@ -7222,7 +7219,7 @@
         <v>491</v>
       </c>
       <c r="D186" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E186">
         <v>2019</v>
@@ -7242,7 +7239,7 @@
         <v>491</v>
       </c>
       <c r="D187" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E187">
         <v>2017</v>
@@ -7262,7 +7259,7 @@
         <v>491</v>
       </c>
       <c r="D188" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E188">
         <v>2019</v>
@@ -7282,7 +7279,7 @@
         <v>491</v>
       </c>
       <c r="D189" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E189">
         <v>2018</v>
@@ -7302,7 +7299,7 @@
         <v>491</v>
       </c>
       <c r="D190" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E190">
         <v>2017</v>
@@ -7322,7 +7319,7 @@
         <v>491</v>
       </c>
       <c r="D191" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E191">
         <v>2018</v>
@@ -7342,7 +7339,7 @@
         <v>491</v>
       </c>
       <c r="D192" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E192">
         <v>2018</v>
@@ -7362,7 +7359,7 @@
         <v>491</v>
       </c>
       <c r="D193" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E193">
         <v>2017</v>
@@ -7382,7 +7379,7 @@
         <v>491</v>
       </c>
       <c r="D194" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E194">
         <v>2019</v>
@@ -7402,10 +7399,10 @@
         <v>491</v>
       </c>
       <c r="D195" t="s">
-        <v>817</v>
-      </c>
-      <c r="E195" t="s">
-        <v>492</v>
+        <v>816</v>
+      </c>
+      <c r="E195">
+        <v>2017</v>
       </c>
       <c r="F195" t="s">
         <v>51</v>
@@ -7422,7 +7419,7 @@
         <v>491</v>
       </c>
       <c r="D196" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E196">
         <v>2019</v>
@@ -7433,16 +7430,16 @@
     </row>
     <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C197" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D197" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E197">
         <v>2018</v>
@@ -7453,16 +7450,16 @@
     </row>
     <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B198" t="s">
         <v>150</v>
       </c>
       <c r="C198" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D198" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E198">
         <v>2018</v>
@@ -7473,16 +7470,16 @@
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D199" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E199">
         <v>2019</v>
@@ -7493,16 +7490,16 @@
     </row>
     <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B200" t="s">
         <v>54</v>
       </c>
       <c r="C200" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D200" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E200">
         <v>2018</v>
@@ -7513,16 +7510,16 @@
     </row>
     <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B201" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C201" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D201" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E201">
         <v>2019</v>
@@ -7533,16 +7530,16 @@
     </row>
     <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B202" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C202" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D202" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E202">
         <v>2019</v>
@@ -7553,16 +7550,16 @@
     </row>
     <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B203" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C203" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D203" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E203">
         <v>2017</v>
@@ -7573,16 +7570,16 @@
     </row>
     <row r="204" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B204" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C204" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D204" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E204">
         <v>2020</v>
@@ -7599,10 +7596,10 @@
         <v>432</v>
       </c>
       <c r="C205" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D205" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E205">
         <v>2018</v>
@@ -7613,16 +7610,16 @@
     </row>
     <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B206" t="s">
         <v>149</v>
       </c>
       <c r="C206" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D206" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E206">
         <v>2018</v>
@@ -7636,13 +7633,13 @@
         <v>166</v>
       </c>
       <c r="B207" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C207" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D207" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E207">
         <v>2018</v>
@@ -7653,16 +7650,16 @@
     </row>
     <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C208" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D208" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E208">
         <v>2020</v>
@@ -7673,16 +7670,16 @@
     </row>
     <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B209" t="s">
         <v>140</v>
       </c>
       <c r="C209" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D209" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E209">
         <v>2017</v>
@@ -7693,16 +7690,16 @@
     </row>
     <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B210" t="s">
         <v>53</v>
       </c>
       <c r="C210" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D210" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E210">
         <v>2018</v>
@@ -7713,16 +7710,16 @@
     </row>
     <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B211" t="s">
         <v>244</v>
       </c>
       <c r="C211" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D211" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E211">
         <v>2019</v>
@@ -7733,16 +7730,16 @@
     </row>
     <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B212" t="s">
         <v>58</v>
       </c>
       <c r="C212" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D212" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E212">
         <v>2020</v>
@@ -7753,16 +7750,16 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B213" t="s">
         <v>19</v>
       </c>
       <c r="C213" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D213" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E213">
         <v>2018</v>
@@ -7773,36 +7770,36 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B214" t="s">
         <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E214" s="2">
         <v>2019</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B215" t="s">
         <v>146</v>
       </c>
       <c r="C215" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D215" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E215">
         <v>2019</v>
@@ -7813,16 +7810,16 @@
     </row>
     <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B216" t="s">
         <v>64</v>
       </c>
       <c r="C216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D216" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E216">
         <v>2017</v>
@@ -7833,36 +7830,36 @@
     </row>
     <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B217" t="s">
         <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E217" s="2">
         <v>2019</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B218" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C218" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D218" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E218">
         <v>2019</v>
@@ -7873,16 +7870,16 @@
     </row>
     <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B219" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C219" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D219" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E219">
         <v>2017</v>
@@ -7893,16 +7890,16 @@
     </row>
     <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B220" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C220" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D220" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E220">
         <v>2017</v>
@@ -7913,16 +7910,16 @@
     </row>
     <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B221" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C221" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D221" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E221">
         <v>2020</v>
@@ -7933,16 +7930,16 @@
     </row>
     <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B222" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C222" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D222" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E222">
         <v>2018</v>
@@ -7953,16 +7950,16 @@
     </row>
     <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B223" t="s">
         <v>264</v>
       </c>
       <c r="C223" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D223" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E223">
         <v>2019</v>
@@ -7973,16 +7970,16 @@
     </row>
     <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B224" t="s">
         <v>353</v>
       </c>
       <c r="C224" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D224" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E224">
         <v>2019</v>
@@ -7993,16 +7990,16 @@
     </row>
     <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B225" t="s">
         <v>56</v>
       </c>
       <c r="C225" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D225" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E225">
         <v>2018</v>
@@ -8013,16 +8010,16 @@
     </row>
     <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B226" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C226" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D226" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E226">
         <v>2019</v>
@@ -8033,16 +8030,16 @@
     </row>
     <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B227" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C227" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D227" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E227">
         <v>2020</v>
@@ -8053,16 +8050,16 @@
     </row>
     <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B228" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C228" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D228" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E228" s="2">
         <v>2018</v>
@@ -8073,16 +8070,16 @@
     </row>
     <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B229" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C229" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D229" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E229">
         <v>2019</v>
@@ -8093,16 +8090,16 @@
     </row>
     <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B230" t="s">
         <v>62</v>
       </c>
       <c r="C230" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D230" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E230">
         <v>2020</v>
@@ -8113,16 +8110,16 @@
     </row>
     <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B231" t="s">
         <v>360</v>
       </c>
       <c r="C231" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D231" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E231">
         <v>2017</v>
@@ -8133,16 +8130,16 @@
     </row>
     <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B232" t="s">
         <v>146</v>
       </c>
       <c r="C232" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D232" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E232">
         <v>2019</v>
@@ -8153,16 +8150,16 @@
     </row>
     <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B233" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C233" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D233" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E233">
         <v>2017</v>
@@ -8173,16 +8170,16 @@
     </row>
     <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B234" t="s">
         <v>152</v>
       </c>
       <c r="C234" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D234" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E234">
         <v>2018</v>
@@ -8193,16 +8190,16 @@
     </row>
     <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B235" t="s">
         <v>154</v>
       </c>
       <c r="C235" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D235" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E235">
         <v>2019</v>
@@ -8213,16 +8210,16 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B236" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C236" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D236" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E236">
         <v>2020</v>
@@ -8233,16 +8230,16 @@
     </row>
     <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B237" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C237" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D237" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E237">
         <v>2017</v>
@@ -8253,16 +8250,16 @@
     </row>
     <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B238" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C238" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D238" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E238">
         <v>2017</v>
@@ -8273,16 +8270,16 @@
     </row>
     <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B239" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C239" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D239" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E239">
         <v>2019</v>
@@ -8293,16 +8290,16 @@
     </row>
     <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B240" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C240" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D240" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E240">
         <v>2020</v>
@@ -8313,16 +8310,16 @@
     </row>
     <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B241" t="s">
         <v>65</v>
       </c>
       <c r="C241" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D241" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E241">
         <v>2019</v>
@@ -8333,16 +8330,16 @@
     </row>
     <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B242" t="s">
         <v>247</v>
       </c>
       <c r="C242" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D242" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E242">
         <v>2018</v>
@@ -8353,16 +8350,16 @@
     </row>
     <row r="243" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B243" t="s">
         <v>146</v>
       </c>
       <c r="C243" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D243" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E243">
         <v>2019</v>
@@ -8373,16 +8370,16 @@
     </row>
     <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B244" t="s">
         <v>137</v>
       </c>
       <c r="C244" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D244" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E244">
         <v>2020</v>
@@ -8393,16 +8390,16 @@
     </row>
     <row r="245" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B245" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C245" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D245" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E245">
         <v>2018</v>
@@ -8413,16 +8410,16 @@
     </row>
     <row r="246" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B246" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C246" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D246" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E246">
         <v>2019</v>
@@ -8433,16 +8430,16 @@
     </row>
     <row r="247" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B247" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C247" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D247" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E247">
         <v>2020</v>
@@ -8453,16 +8450,16 @@
     </row>
     <row r="248" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C248" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D248" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E248">
         <v>2017</v>
@@ -8473,16 +8470,16 @@
     </row>
     <row r="249" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B249" t="s">
         <v>62</v>
       </c>
       <c r="C249" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D249" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E249">
         <v>2019</v>
@@ -8493,16 +8490,16 @@
     </row>
     <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B250" t="s">
         <v>58</v>
       </c>
       <c r="C250" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D250" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E250">
         <v>2019</v>
@@ -8513,16 +8510,16 @@
     </row>
     <row r="251" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B251" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C251" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D251" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E251">
         <v>2020</v>
@@ -8533,16 +8530,16 @@
     </row>
     <row r="252" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B252" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C252" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D252" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E252">
         <v>2017</v>
@@ -8553,16 +8550,16 @@
     </row>
     <row r="253" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B253" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C253" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E253" s="2">
         <v>2020</v>
@@ -8573,16 +8570,16 @@
     </row>
     <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B254" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C254" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D254" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E254">
         <v>2017</v>
@@ -8593,16 +8590,16 @@
     </row>
     <row r="255" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B255" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C255" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D255" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E255">
         <v>2019</v>
@@ -8613,16 +8610,16 @@
     </row>
     <row r="256" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B256" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C256" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D256" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E256">
         <v>2017</v>
@@ -8633,16 +8630,16 @@
     </row>
     <row r="257" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B257" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C257" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D257" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E257">
         <v>2019</v>
@@ -8653,16 +8650,16 @@
     </row>
     <row r="258" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B258" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C258" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D258" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E258">
         <v>2017</v>
@@ -8673,16 +8670,16 @@
     </row>
     <row r="259" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B259" t="s">
+        <v>525</v>
+      </c>
+      <c r="C259" t="s">
         <v>526</v>
       </c>
-      <c r="C259" t="s">
-        <v>527</v>
-      </c>
       <c r="D259" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E259">
         <v>2020</v>
@@ -8699,10 +8696,10 @@
         <v>349</v>
       </c>
       <c r="C260" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D260" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E260">
         <v>2020</v>
@@ -8713,16 +8710,16 @@
     </row>
     <row r="261" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B261" t="s">
         <v>149</v>
       </c>
       <c r="C261" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D261" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E261">
         <v>2018</v>
@@ -8733,16 +8730,16 @@
     </row>
     <row r="262" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B262" t="s">
         <v>421</v>
       </c>
       <c r="C262" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D262" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E262">
         <v>2017</v>
@@ -8753,16 +8750,16 @@
     </row>
     <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B263" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C263" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D263" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E263">
         <v>2019</v>
@@ -8773,16 +8770,16 @@
     </row>
     <row r="264" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D264" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E264">
         <v>2018</v>
@@ -8793,16 +8790,16 @@
     </row>
     <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B265" t="s">
         <v>60</v>
       </c>
       <c r="C265" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D265" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E265">
         <v>2018</v>
@@ -8813,22 +8810,22 @@
     </row>
     <row r="266" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B266" t="s">
         <v>247</v>
       </c>
       <c r="C266" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D266" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E266">
         <v>2017</v>
       </c>
       <c r="F266" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8839,10 +8836,10 @@
         <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D267" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E267">
         <v>2018</v>
@@ -8853,16 +8850,16 @@
     </row>
     <row r="268" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B268" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C268" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D268" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E268">
         <v>2017</v>
@@ -8873,16 +8870,16 @@
     </row>
     <row r="269" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B269" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C269" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D269" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E269">
         <v>2020</v>
@@ -8893,16 +8890,16 @@
     </row>
     <row r="270" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B270" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C270" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D270" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E270">
         <v>2017</v>
@@ -8913,16 +8910,16 @@
     </row>
     <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B271" t="s">
+        <v>591</v>
+      </c>
+      <c r="C271" t="s">
         <v>653</v>
       </c>
-      <c r="B271" t="s">
-        <v>592</v>
-      </c>
-      <c r="C271" t="s">
-        <v>654</v>
-      </c>
       <c r="D271" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E271">
         <v>2019</v>
@@ -8933,16 +8930,16 @@
     </row>
     <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B272" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C272" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D272" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E272">
         <v>2020</v>
@@ -8953,16 +8950,16 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B273" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C273" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D273" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E273">
         <v>2020</v>
@@ -8973,16 +8970,16 @@
     </row>
     <row r="274" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B274" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C274" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D274" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E274">
         <v>2019</v>
@@ -8999,10 +8996,10 @@
         <v>150</v>
       </c>
       <c r="C275" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D275" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E275">
         <v>2019</v>
@@ -9013,16 +9010,16 @@
     </row>
     <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B276" t="s">
         <v>139</v>
       </c>
       <c r="C276" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D276" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E276">
         <v>2017</v>
@@ -9033,16 +9030,16 @@
     </row>
     <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B277" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C277" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D277" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E277">
         <v>2017</v>
@@ -9053,16 +9050,16 @@
     </row>
     <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B278" t="s">
         <v>150</v>
       </c>
       <c r="C278" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D278" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E278">
         <v>2020</v>
@@ -9073,16 +9070,16 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B279" t="s">
         <v>140</v>
       </c>
       <c r="C279" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D279" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E279">
         <v>2020</v>
@@ -9093,16 +9090,16 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B280" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C280" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D280" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E280">
         <v>2019</v>
@@ -9113,22 +9110,22 @@
     </row>
     <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D281" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E281">
         <v>2020</v>
       </c>
       <c r="F281" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9136,13 +9133,13 @@
         <v>374</v>
       </c>
       <c r="B282" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C282" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D282" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E282">
         <v>2017</v>
@@ -9156,13 +9153,13 @@
         <v>374</v>
       </c>
       <c r="B283" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C283" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D283" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E283">
         <v>2019</v>
@@ -9176,13 +9173,13 @@
         <v>426</v>
       </c>
       <c r="B284" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C284" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D284" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E284">
         <v>2020</v>
@@ -9193,16 +9190,16 @@
     </row>
     <row r="285" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B285" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C285" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D285" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E285">
         <v>2020</v>
@@ -9213,16 +9210,16 @@
     </row>
     <row r="286" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B286" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C286" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D286" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E286">
         <v>2018</v>
@@ -9233,36 +9230,36 @@
     </row>
     <row r="287" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B287" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C287" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E287" s="2">
         <v>2019</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B288" t="s">
         <v>151</v>
       </c>
       <c r="C288" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D288" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E288">
         <v>2019</v>
@@ -9273,16 +9270,16 @@
     </row>
     <row r="289" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B289" t="s">
         <v>441</v>
       </c>
       <c r="C289" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D289" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E289">
         <v>2017</v>
@@ -9293,16 +9290,16 @@
     </row>
     <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B290" t="s">
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D290" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E290">
         <v>2018</v>
@@ -9313,16 +9310,16 @@
     </row>
     <row r="291" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B291" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C291" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D291" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E291">
         <v>2020</v>
@@ -9333,16 +9330,16 @@
     </row>
     <row r="292" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B292" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C292" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D292" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E292">
         <v>2018</v>
@@ -9353,16 +9350,16 @@
     </row>
     <row r="293" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B293" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C293" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D293" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E293">
         <v>2020</v>
@@ -9373,16 +9370,16 @@
     </row>
     <row r="294" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C294" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D294" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E294">
         <v>2020</v>
@@ -9393,36 +9390,36 @@
     </row>
     <row r="295" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B295" t="s">
         <v>260</v>
       </c>
       <c r="C295" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D295" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E295">
         <v>2020</v>
       </c>
       <c r="F295" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B296" t="s">
         <v>148</v>
       </c>
       <c r="C296" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D296" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E296">
         <v>2020</v>
@@ -9433,16 +9430,16 @@
     </row>
     <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B297" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C297" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D297" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E297">
         <v>2018</v>
@@ -9453,16 +9450,16 @@
     </row>
     <row r="298" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B298" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C298" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D298" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E298">
         <v>2019</v>
@@ -9473,16 +9470,16 @@
     </row>
     <row r="299" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B299" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C299" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D299" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E299">
         <v>2020</v>
@@ -9499,7 +9496,7 @@
         <v>55</v>
       </c>
       <c r="C300" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D300" t="s">
         <v>123</v>
@@ -9513,16 +9510,16 @@
     </row>
     <row r="301" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B301" t="s">
         <v>18</v>
       </c>
       <c r="C301" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D301" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E301">
         <v>2019</v>
@@ -9539,30 +9536,30 @@
         <v>184</v>
       </c>
       <c r="C302" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E302" s="2">
         <v>2020</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B303" t="s">
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D303" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E303">
         <v>2018</v>
@@ -9573,16 +9570,16 @@
     </row>
     <row r="304" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B304" t="s">
         <v>62</v>
       </c>
       <c r="C304" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D304" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E304">
         <v>2020</v>
@@ -9593,16 +9590,16 @@
     </row>
     <row r="305" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B305" t="s">
         <v>339</v>
       </c>
       <c r="C305" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D305" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E305">
         <v>2017</v>
@@ -9613,16 +9610,16 @@
     </row>
     <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B306" t="s">
         <v>245</v>
       </c>
       <c r="C306" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D306" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E306">
         <v>2020</v>
@@ -9633,16 +9630,16 @@
     </row>
     <row r="307" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B307" t="s">
         <v>247</v>
       </c>
       <c r="C307" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D307" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E307">
         <v>2017</v>
@@ -9653,16 +9650,16 @@
     </row>
     <row r="308" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B308" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C308" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D308" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E308">
         <v>2017</v>
@@ -9673,16 +9670,16 @@
     </row>
     <row r="309" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B309" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C309" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D309" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E309">
         <v>2017</v>
@@ -9693,16 +9690,16 @@
     </row>
     <row r="310" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B310" t="s">
         <v>74</v>
       </c>
       <c r="C310" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D310" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E310">
         <v>2020</v>
@@ -9713,16 +9710,16 @@
     </row>
     <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B311" t="s">
         <v>60</v>
       </c>
       <c r="C311" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D311" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E311">
         <v>2018</v>
@@ -9733,16 +9730,16 @@
     </row>
     <row r="312" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B312" t="s">
         <v>12</v>
       </c>
       <c r="C312" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D312" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E312">
         <v>2018</v>
@@ -9753,16 +9750,16 @@
     </row>
     <row r="313" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B313" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C313" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D313" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E313">
         <v>2018</v>
@@ -9773,16 +9770,16 @@
     </row>
     <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B314" t="s">
         <v>245</v>
       </c>
       <c r="C314" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D314" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E314">
         <v>2017</v>
@@ -9793,16 +9790,16 @@
     </row>
     <row r="315" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B315" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C315" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D315" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E315">
         <v>2019</v>
@@ -9813,16 +9810,16 @@
     </row>
     <row r="316" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B316" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C316" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D316" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E316">
         <v>2017</v>
@@ -9833,22 +9830,22 @@
     </row>
     <row r="317" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B317" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C317" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E317" s="2">
         <v>2019</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9856,13 +9853,13 @@
         <v>81</v>
       </c>
       <c r="B318" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C318" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E318" s="2">
         <v>2019</v>
@@ -9879,30 +9876,30 @@
         <v>18</v>
       </c>
       <c r="C319" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E319" s="2">
         <v>2020</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B320" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C320" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D320" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E320">
         <v>2019</v>
@@ -9913,16 +9910,16 @@
     </row>
     <row r="321" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B321" t="s">
         <v>245</v>
       </c>
       <c r="C321" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E321" s="2">
         <v>2017</v>
@@ -9933,16 +9930,16 @@
     </row>
     <row r="322" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B322" t="s">
         <v>18</v>
       </c>
       <c r="C322" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E322" s="2">
         <v>2018</v>
@@ -9956,13 +9953,13 @@
         <v>271</v>
       </c>
       <c r="B323" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C323" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E323" s="2">
         <v>2019</v>
@@ -9973,16 +9970,16 @@
     </row>
     <row r="324" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B324" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C324" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E324" s="2">
         <v>2018</v>
@@ -9993,16 +9990,16 @@
     </row>
     <row r="325" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B325" t="s">
         <v>18</v>
       </c>
       <c r="C325" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E325" s="2">
         <v>2020</v>
@@ -10013,16 +10010,16 @@
     </row>
     <row r="326" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B326" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C326" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E326" s="2">
         <v>2020</v>
@@ -10039,7 +10036,7 @@
         <v>247</v>
       </c>
       <c r="C327" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>205</v>
@@ -10053,16 +10050,16 @@
     </row>
     <row r="328" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B328" t="s">
         <v>152</v>
       </c>
       <c r="C328" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E328" s="2">
         <v>2017</v>
@@ -10073,16 +10070,16 @@
     </row>
     <row r="329" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B329" t="s">
         <v>54</v>
       </c>
       <c r="C329" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E329" s="2">
         <v>2020</v>
@@ -10093,16 +10090,16 @@
     </row>
     <row r="330" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B330" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C330" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E330" s="2">
         <v>2017</v>
@@ -10113,16 +10110,16 @@
     </row>
     <row r="331" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B331" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C331" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E331" s="2">
         <v>2019</v>
@@ -10133,16 +10130,16 @@
     </row>
     <row r="332" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B332" t="s">
         <v>421</v>
       </c>
       <c r="C332" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E332" s="2">
         <v>2020</v>
@@ -10153,16 +10150,16 @@
     </row>
     <row r="333" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B333" t="s">
         <v>245</v>
       </c>
       <c r="C333" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E333" s="2">
         <v>2019</v>
@@ -10173,16 +10170,16 @@
     </row>
     <row r="334" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B334" t="s">
         <v>421</v>
       </c>
       <c r="C334" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E334" s="2">
         <v>2018</v>
@@ -10193,36 +10190,36 @@
     </row>
     <row r="335" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B335" t="s">
         <v>244</v>
       </c>
       <c r="C335" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E335" s="2">
         <v>2018</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B336" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C336" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E336" s="2">
         <v>2018</v>
@@ -10233,16 +10230,16 @@
     </row>
     <row r="337" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B337" t="s">
         <v>254</v>
       </c>
       <c r="C337" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E337" s="2">
         <v>2018</v>
@@ -10253,16 +10250,16 @@
     </row>
     <row r="338" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B338" t="s">
         <v>245</v>
       </c>
       <c r="C338" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E338" s="2">
         <v>2018</v>
@@ -10273,16 +10270,16 @@
     </row>
     <row r="339" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B339" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C339" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E339" s="2">
         <v>2018</v>
@@ -10293,16 +10290,16 @@
     </row>
     <row r="340" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B340" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C340" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E340" s="2">
         <v>2019</v>
@@ -10313,16 +10310,16 @@
     </row>
     <row r="341" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B341" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C341" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E341" s="2">
         <v>2020</v>
@@ -10333,16 +10330,16 @@
     </row>
     <row r="342" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B342" t="s">
         <v>255</v>
       </c>
       <c r="C342" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E342" s="2">
         <v>2019</v>
@@ -10353,16 +10350,16 @@
     </row>
     <row r="343" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B343" t="s">
         <v>438</v>
       </c>
       <c r="C343" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E343" s="2">
         <v>2018</v>
@@ -10373,16 +10370,16 @@
     </row>
     <row r="344" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B344" t="s">
         <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E344" s="2">
         <v>2017</v>
@@ -10393,16 +10390,16 @@
     </row>
     <row r="345" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B345" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C345" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E345" s="2">
         <v>2018</v>
@@ -10416,13 +10413,13 @@
         <v>160</v>
       </c>
       <c r="B346" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C346" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E346" s="2">
         <v>2019</v>
@@ -10439,30 +10436,30 @@
         <v>140</v>
       </c>
       <c r="C347" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E347" s="2">
         <v>2020</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B348" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C348" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E348" s="2">
         <v>2017</v>
@@ -10473,16 +10470,16 @@
     </row>
     <row r="349" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B349" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C349" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E349" s="2">
         <v>2017</v>
@@ -10493,16 +10490,16 @@
     </row>
     <row r="350" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B350" t="s">
         <v>144</v>
       </c>
       <c r="C350" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E350" s="2">
         <v>2017</v>
@@ -10513,16 +10510,16 @@
     </row>
     <row r="351" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B351" t="s">
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E351" s="2">
         <v>2017</v>
@@ -10533,36 +10530,36 @@
     </row>
     <row r="352" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B352" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C352" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E352" s="2">
         <v>2018</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B353" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C353" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E353" s="2">
         <v>2020</v>
@@ -10573,16 +10570,16 @@
     </row>
     <row r="354" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B354" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C354" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E354" s="2">
         <v>2018</v>
@@ -10593,36 +10590,36 @@
     </row>
     <row r="355" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B355" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C355" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E355" s="2">
         <v>2020</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B356" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C356" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E356" s="2">
         <v>2018</v>
@@ -10633,16 +10630,16 @@
     </row>
     <row r="357" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B357" t="s">
         <v>19</v>
       </c>
       <c r="C357" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E357" s="2">
         <v>2018</v>
@@ -10653,16 +10650,16 @@
     </row>
     <row r="358" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B358" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C358" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E358" s="2">
         <v>2020</v>
@@ -10673,16 +10670,16 @@
     </row>
     <row r="359" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B359" t="s">
         <v>248</v>
       </c>
       <c r="C359" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E359" s="2">
         <v>2019</v>
@@ -10693,16 +10690,16 @@
     </row>
     <row r="360" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B360" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C360" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E360" s="2">
         <v>2019</v>
@@ -10713,36 +10710,36 @@
     </row>
     <row r="361" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B361" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C361" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E361" s="2">
         <v>2017</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B362" t="s">
         <v>58</v>
       </c>
       <c r="C362" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E362" s="2">
         <v>2020</v>
@@ -10753,16 +10750,16 @@
     </row>
     <row r="363" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B363" t="s">
         <v>263</v>
       </c>
       <c r="C363" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E363" s="2">
         <v>2018</v>
@@ -10773,36 +10770,36 @@
     </row>
     <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B364" t="s">
         <v>247</v>
       </c>
       <c r="C364" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E364" s="2">
         <v>2017</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B365" t="s">
         <v>62</v>
       </c>
       <c r="C365" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E365">
         <v>2020</v>
@@ -10813,16 +10810,16 @@
     </row>
     <row r="366" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B366" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C366" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E366">
         <v>2019</v>
@@ -10836,13 +10833,13 @@
         <v>290</v>
       </c>
       <c r="B367" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C367" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E367">
         <v>2017</v>
@@ -10853,16 +10850,16 @@
     </row>
     <row r="368" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B368" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C368" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E368">
         <v>2017</v>
@@ -10873,36 +10870,36 @@
     </row>
     <row r="369" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B369" t="s">
         <v>245</v>
       </c>
       <c r="C369" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E369" s="2">
         <v>2017</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B370" t="s">
         <v>264</v>
       </c>
       <c r="C370" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E370">
         <v>2017</v>
@@ -10913,16 +10910,16 @@
     </row>
     <row r="371" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B371" t="s">
         <v>349</v>
       </c>
       <c r="C371" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E371">
         <v>2019</v>
@@ -10933,16 +10930,16 @@
     </row>
     <row r="372" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B372" t="s">
         <v>58</v>
       </c>
       <c r="C372" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E372">
         <v>2018</v>
@@ -10953,16 +10950,16 @@
     </row>
     <row r="373" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B373" t="s">
         <v>130</v>
       </c>
       <c r="C373" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E373">
         <v>2018</v>
@@ -10973,16 +10970,16 @@
     </row>
     <row r="374" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B374" t="s">
         <v>53</v>
       </c>
       <c r="C374" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E374">
         <v>2018</v>
@@ -10996,13 +10993,13 @@
         <v>186</v>
       </c>
       <c r="B375" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C375" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E375">
         <v>2020</v>
@@ -11016,19 +11013,19 @@
         <v>60</v>
       </c>
       <c r="B376" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C376" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E376" s="2">
         <v>2018</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11036,13 +11033,13 @@
         <v>60</v>
       </c>
       <c r="B377" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C377" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E377">
         <v>2017</v>
@@ -11053,16 +11050,16 @@
     </row>
     <row r="378" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B378" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C378" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E378">
         <v>2018</v>
@@ -11073,16 +11070,16 @@
     </row>
     <row r="379" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B379" t="s">
         <v>137</v>
       </c>
       <c r="C379" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E379">
         <v>2020</v>
@@ -11093,16 +11090,16 @@
     </row>
     <row r="380" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B380" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C380" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E380">
         <v>2017</v>
@@ -11116,13 +11113,13 @@
         <v>482</v>
       </c>
       <c r="B381" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C381" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E381">
         <v>2017</v>
@@ -11133,16 +11130,16 @@
     </row>
     <row r="382" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B382" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C382" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E382">
         <v>2018</v>
@@ -11153,16 +11150,16 @@
     </row>
     <row r="383" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B383" t="s">
         <v>120</v>
       </c>
       <c r="C383" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E383" s="2">
         <v>2017</v>
@@ -11173,16 +11170,16 @@
     </row>
     <row r="384" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B384" t="s">
         <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E384">
         <v>2019</v>
@@ -11193,16 +11190,16 @@
     </row>
     <row r="385" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B385" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C385" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E385">
         <v>2019</v>
@@ -11213,36 +11210,36 @@
     </row>
     <row r="386" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B386" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C386" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E386" s="2">
         <v>2018</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B387" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C387" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E387">
         <v>2018</v>
@@ -11253,16 +11250,16 @@
     </row>
     <row r="388" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B388" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C388" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E388">
         <v>2020</v>
@@ -11273,16 +11270,16 @@
     </row>
     <row r="389" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B389" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C389" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E389">
         <v>2020</v>
@@ -11293,16 +11290,16 @@
     </row>
     <row r="390" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C390" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E390">
         <v>2020</v>
@@ -11313,16 +11310,16 @@
     </row>
     <row r="391" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B391" t="s">
         <v>421</v>
       </c>
       <c r="C391" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E391">
         <v>2017</v>
@@ -11333,16 +11330,16 @@
     </row>
     <row r="392" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B392" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C392" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E392">
         <v>2020</v>
@@ -11353,16 +11350,16 @@
     </row>
     <row r="393" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B393" t="s">
         <v>20</v>
       </c>
       <c r="C393" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E393">
         <v>2019</v>
@@ -11373,16 +11370,16 @@
     </row>
     <row r="394" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B394" t="s">
         <v>58</v>
       </c>
       <c r="C394" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E394">
         <v>2019</v>
@@ -11393,16 +11390,16 @@
     </row>
     <row r="395" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B395" t="s">
+        <v>685</v>
+      </c>
+      <c r="C395" t="s">
         <v>686</v>
       </c>
-      <c r="C395" t="s">
-        <v>687</v>
-      </c>
       <c r="D395" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E395">
         <v>2020</v>
@@ -11413,16 +11410,16 @@
     </row>
     <row r="396" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B396" t="s">
+        <v>754</v>
+      </c>
+      <c r="C396" t="s">
         <v>757</v>
       </c>
-      <c r="B396" t="s">
-        <v>755</v>
-      </c>
-      <c r="C396" t="s">
-        <v>758</v>
-      </c>
       <c r="D396" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E396">
         <v>2017</v>
@@ -11433,16 +11430,16 @@
     </row>
     <row r="397" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B397" t="s">
         <v>132</v>
       </c>
       <c r="C397" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E397">
         <v>2017</v>
@@ -11453,16 +11450,16 @@
     </row>
     <row r="398" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B398" t="s">
         <v>421</v>
       </c>
       <c r="C398" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E398">
         <v>2017</v>
@@ -11473,16 +11470,16 @@
     </row>
     <row r="399" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B399" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C399" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E399">
         <v>2020</v>
@@ -11493,16 +11490,16 @@
     </row>
     <row r="400" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B400" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C400" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E400">
         <v>2017</v>
@@ -11516,13 +11513,13 @@
         <v>374</v>
       </c>
       <c r="B401" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C401" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E401">
         <v>2018</v>
@@ -11533,16 +11530,16 @@
     </row>
     <row r="402" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B402" t="s">
         <v>441</v>
       </c>
       <c r="C402" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E402">
         <v>2020</v>
@@ -11553,16 +11550,16 @@
     </row>
     <row r="403" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B403" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C403" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E403">
         <v>2018</v>
@@ -11573,16 +11570,16 @@
     </row>
     <row r="404" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B404" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C404" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E404">
         <v>2018</v>
@@ -11593,16 +11590,16 @@
     </row>
     <row r="405" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B405" t="s">
         <v>142</v>
       </c>
       <c r="C405" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E405">
         <v>2017</v>

--- a/db/students.xlsx
+++ b/db/students.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1030">
   <si>
     <t>Last Name</t>
   </si>
@@ -2295,9 +2295,6 @@
   </si>
   <si>
     <t>Bernier</t>
-  </si>
-  <si>
-    <t>Drum Major</t>
   </si>
   <si>
     <t>Steven</t>
@@ -3496,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,13 +3576,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="2">
         <v>2017</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3619,13 +3616,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E6" s="2">
         <v>2020</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3659,13 +3656,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="2">
         <v>2017</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3919,13 +3916,13 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E21" s="2">
         <v>2020</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4219,13 +4216,13 @@
         <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E36" s="2">
         <v>2020</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4879,13 +4876,13 @@
         <v>201</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E69" s="2">
         <v>2020</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6079,7 +6076,7 @@
         <v>390</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E129" s="2">
         <v>2020</v>
@@ -6539,7 +6536,7 @@
         <v>491</v>
       </c>
       <c r="D152" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E152">
         <v>2020</v>
@@ -6559,7 +6556,7 @@
         <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E153">
         <v>2019</v>
@@ -6579,7 +6576,7 @@
         <v>491</v>
       </c>
       <c r="D154" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E154">
         <v>2020</v>
@@ -6599,7 +6596,7 @@
         <v>491</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E155" s="2">
         <v>2018</v>
@@ -6619,7 +6616,7 @@
         <v>491</v>
       </c>
       <c r="D156" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E156">
         <v>2017</v>
@@ -6639,7 +6636,7 @@
         <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E157">
         <v>2018</v>
@@ -6659,7 +6656,7 @@
         <v>491</v>
       </c>
       <c r="D158" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E158">
         <v>2017</v>
@@ -6679,7 +6676,7 @@
         <v>491</v>
       </c>
       <c r="D159" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E159">
         <v>2020</v>
@@ -6699,7 +6696,7 @@
         <v>491</v>
       </c>
       <c r="D160" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E160">
         <v>2019</v>
@@ -6719,7 +6716,7 @@
         <v>491</v>
       </c>
       <c r="D161" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E161">
         <v>2020</v>
@@ -6739,7 +6736,7 @@
         <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E162">
         <v>2018</v>
@@ -6759,7 +6756,7 @@
         <v>491</v>
       </c>
       <c r="D163" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E163">
         <v>2017</v>
@@ -6779,7 +6776,7 @@
         <v>491</v>
       </c>
       <c r="D164" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E164">
         <v>2017</v>
@@ -6799,7 +6796,7 @@
         <v>491</v>
       </c>
       <c r="D165" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E165">
         <v>2020</v>
@@ -6819,7 +6816,7 @@
         <v>491</v>
       </c>
       <c r="D166" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E166">
         <v>2017</v>
@@ -6830,7 +6827,7 @@
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B167" t="s">
         <v>429</v>
@@ -6839,7 +6836,7 @@
         <v>491</v>
       </c>
       <c r="D167" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E167">
         <v>2017</v>
@@ -6859,7 +6856,7 @@
         <v>491</v>
       </c>
       <c r="D168" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E168">
         <v>2020</v>
@@ -6879,7 +6876,7 @@
         <v>491</v>
       </c>
       <c r="D169" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E169">
         <v>2018</v>
@@ -6899,13 +6896,13 @@
         <v>491</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E170" s="2">
         <v>2020</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6919,7 +6916,7 @@
         <v>491</v>
       </c>
       <c r="D171" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E171">
         <v>2019</v>
@@ -6939,7 +6936,7 @@
         <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E172">
         <v>2020</v>
@@ -6959,7 +6956,7 @@
         <v>491</v>
       </c>
       <c r="D173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E173">
         <v>2020</v>
@@ -6979,7 +6976,7 @@
         <v>491</v>
       </c>
       <c r="D174" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E174">
         <v>2018</v>
@@ -6999,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="D175" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E175">
         <v>2019</v>
@@ -7019,7 +7016,7 @@
         <v>491</v>
       </c>
       <c r="D176" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E176">
         <v>2019</v>
@@ -7039,7 +7036,7 @@
         <v>491</v>
       </c>
       <c r="D177" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E177">
         <v>2018</v>
@@ -7059,7 +7056,7 @@
         <v>491</v>
       </c>
       <c r="D178" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E178">
         <v>2017</v>
@@ -7079,7 +7076,7 @@
         <v>491</v>
       </c>
       <c r="D179" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E179">
         <v>2020</v>
@@ -7099,7 +7096,7 @@
         <v>491</v>
       </c>
       <c r="D180" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E180">
         <v>2020</v>
@@ -7119,7 +7116,7 @@
         <v>491</v>
       </c>
       <c r="D181" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E181">
         <v>2017</v>
@@ -7139,7 +7136,7 @@
         <v>491</v>
       </c>
       <c r="D182" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E182">
         <v>2017</v>
@@ -7159,7 +7156,7 @@
         <v>491</v>
       </c>
       <c r="D183" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E183">
         <v>2018</v>
@@ -7179,7 +7176,7 @@
         <v>491</v>
       </c>
       <c r="D184" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E184">
         <v>2020</v>
@@ -7199,7 +7196,7 @@
         <v>491</v>
       </c>
       <c r="D185" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E185">
         <v>2019</v>
@@ -7219,7 +7216,7 @@
         <v>491</v>
       </c>
       <c r="D186" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E186">
         <v>2019</v>
@@ -7239,7 +7236,7 @@
         <v>491</v>
       </c>
       <c r="D187" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E187">
         <v>2017</v>
@@ -7259,7 +7256,7 @@
         <v>491</v>
       </c>
       <c r="D188" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E188">
         <v>2019</v>
@@ -7279,7 +7276,7 @@
         <v>491</v>
       </c>
       <c r="D189" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E189">
         <v>2018</v>
@@ -7299,7 +7296,7 @@
         <v>491</v>
       </c>
       <c r="D190" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E190">
         <v>2017</v>
@@ -7319,7 +7316,7 @@
         <v>491</v>
       </c>
       <c r="D191" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E191">
         <v>2018</v>
@@ -7339,7 +7336,7 @@
         <v>491</v>
       </c>
       <c r="D192" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E192">
         <v>2018</v>
@@ -7359,7 +7356,7 @@
         <v>491</v>
       </c>
       <c r="D193" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E193">
         <v>2017</v>
@@ -7379,7 +7376,7 @@
         <v>491</v>
       </c>
       <c r="D194" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E194">
         <v>2019</v>
@@ -7399,7 +7396,7 @@
         <v>491</v>
       </c>
       <c r="D195" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E195">
         <v>2017</v>
@@ -7419,7 +7416,7 @@
         <v>491</v>
       </c>
       <c r="D196" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E196">
         <v>2019</v>
@@ -7439,7 +7436,7 @@
         <v>526</v>
       </c>
       <c r="D197" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E197">
         <v>2018</v>
@@ -7459,7 +7456,7 @@
         <v>526</v>
       </c>
       <c r="D198" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E198">
         <v>2018</v>
@@ -7479,7 +7476,7 @@
         <v>526</v>
       </c>
       <c r="D199" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E199">
         <v>2019</v>
@@ -7499,7 +7496,7 @@
         <v>526</v>
       </c>
       <c r="D200" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E200">
         <v>2018</v>
@@ -7519,7 +7516,7 @@
         <v>526</v>
       </c>
       <c r="D201" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E201">
         <v>2019</v>
@@ -7539,7 +7536,7 @@
         <v>526</v>
       </c>
       <c r="D202" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E202">
         <v>2019</v>
@@ -7559,7 +7556,7 @@
         <v>526</v>
       </c>
       <c r="D203" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E203">
         <v>2017</v>
@@ -7579,7 +7576,7 @@
         <v>526</v>
       </c>
       <c r="D204" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E204">
         <v>2020</v>
@@ -7599,7 +7596,7 @@
         <v>526</v>
       </c>
       <c r="D205" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E205">
         <v>2018</v>
@@ -7619,7 +7616,7 @@
         <v>526</v>
       </c>
       <c r="D206" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E206">
         <v>2018</v>
@@ -7639,7 +7636,7 @@
         <v>526</v>
       </c>
       <c r="D207" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E207">
         <v>2018</v>
@@ -7659,7 +7656,7 @@
         <v>526</v>
       </c>
       <c r="D208" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E208">
         <v>2020</v>
@@ -7679,7 +7676,7 @@
         <v>526</v>
       </c>
       <c r="D209" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E209">
         <v>2017</v>
@@ -7699,7 +7696,7 @@
         <v>526</v>
       </c>
       <c r="D210" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E210">
         <v>2018</v>
@@ -7719,7 +7716,7 @@
         <v>526</v>
       </c>
       <c r="D211" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E211">
         <v>2019</v>
@@ -7739,7 +7736,7 @@
         <v>526</v>
       </c>
       <c r="D212" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E212">
         <v>2020</v>
@@ -7759,7 +7756,7 @@
         <v>526</v>
       </c>
       <c r="D213" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E213">
         <v>2018</v>
@@ -7779,13 +7776,13 @@
         <v>526</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E214" s="2">
         <v>2019</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7799,7 +7796,7 @@
         <v>526</v>
       </c>
       <c r="D215" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E215">
         <v>2019</v>
@@ -7819,7 +7816,7 @@
         <v>526</v>
       </c>
       <c r="D216" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E216">
         <v>2017</v>
@@ -7839,13 +7836,13 @@
         <v>526</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E217" s="2">
         <v>2019</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7859,7 +7856,7 @@
         <v>526</v>
       </c>
       <c r="D218" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E218">
         <v>2019</v>
@@ -7879,7 +7876,7 @@
         <v>526</v>
       </c>
       <c r="D219" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E219">
         <v>2017</v>
@@ -7899,7 +7896,7 @@
         <v>526</v>
       </c>
       <c r="D220" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E220">
         <v>2017</v>
@@ -7919,7 +7916,7 @@
         <v>526</v>
       </c>
       <c r="D221" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E221">
         <v>2020</v>
@@ -7939,7 +7936,7 @@
         <v>526</v>
       </c>
       <c r="D222" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E222">
         <v>2018</v>
@@ -7959,7 +7956,7 @@
         <v>526</v>
       </c>
       <c r="D223" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E223">
         <v>2019</v>
@@ -7979,7 +7976,7 @@
         <v>526</v>
       </c>
       <c r="D224" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E224">
         <v>2019</v>
@@ -7999,7 +7996,7 @@
         <v>526</v>
       </c>
       <c r="D225" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E225">
         <v>2018</v>
@@ -8019,7 +8016,7 @@
         <v>526</v>
       </c>
       <c r="D226" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E226">
         <v>2019</v>
@@ -8039,7 +8036,7 @@
         <v>526</v>
       </c>
       <c r="D227" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E227">
         <v>2020</v>
@@ -8059,7 +8056,7 @@
         <v>526</v>
       </c>
       <c r="D228" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E228" s="2">
         <v>2018</v>
@@ -8079,7 +8076,7 @@
         <v>526</v>
       </c>
       <c r="D229" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E229">
         <v>2019</v>
@@ -8099,7 +8096,7 @@
         <v>526</v>
       </c>
       <c r="D230" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E230">
         <v>2020</v>
@@ -8119,7 +8116,7 @@
         <v>526</v>
       </c>
       <c r="D231" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E231">
         <v>2017</v>
@@ -8139,7 +8136,7 @@
         <v>526</v>
       </c>
       <c r="D232" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E232">
         <v>2019</v>
@@ -8159,7 +8156,7 @@
         <v>526</v>
       </c>
       <c r="D233" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E233">
         <v>2017</v>
@@ -8179,7 +8176,7 @@
         <v>526</v>
       </c>
       <c r="D234" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E234">
         <v>2018</v>
@@ -8199,7 +8196,7 @@
         <v>526</v>
       </c>
       <c r="D235" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E235">
         <v>2019</v>
@@ -8219,7 +8216,7 @@
         <v>526</v>
       </c>
       <c r="D236" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E236">
         <v>2020</v>
@@ -8239,7 +8236,7 @@
         <v>526</v>
       </c>
       <c r="D237" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E237">
         <v>2017</v>
@@ -8259,7 +8256,7 @@
         <v>526</v>
       </c>
       <c r="D238" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E238">
         <v>2017</v>
@@ -8279,7 +8276,7 @@
         <v>526</v>
       </c>
       <c r="D239" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E239">
         <v>2019</v>
@@ -8299,7 +8296,7 @@
         <v>526</v>
       </c>
       <c r="D240" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E240">
         <v>2020</v>
@@ -8319,7 +8316,7 @@
         <v>526</v>
       </c>
       <c r="D241" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E241">
         <v>2019</v>
@@ -8339,7 +8336,7 @@
         <v>526</v>
       </c>
       <c r="D242" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E242">
         <v>2018</v>
@@ -8359,7 +8356,7 @@
         <v>526</v>
       </c>
       <c r="D243" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E243">
         <v>2019</v>
@@ -8379,7 +8376,7 @@
         <v>526</v>
       </c>
       <c r="D244" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E244">
         <v>2020</v>
@@ -8399,7 +8396,7 @@
         <v>526</v>
       </c>
       <c r="D245" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E245">
         <v>2018</v>
@@ -8419,7 +8416,7 @@
         <v>526</v>
       </c>
       <c r="D246" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E246">
         <v>2019</v>
@@ -8439,7 +8436,7 @@
         <v>526</v>
       </c>
       <c r="D247" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E247">
         <v>2020</v>
@@ -8459,7 +8456,7 @@
         <v>526</v>
       </c>
       <c r="D248" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E248">
         <v>2017</v>
@@ -8479,7 +8476,7 @@
         <v>526</v>
       </c>
       <c r="D249" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E249">
         <v>2019</v>
@@ -8499,7 +8496,7 @@
         <v>526</v>
       </c>
       <c r="D250" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E250">
         <v>2019</v>
@@ -8519,7 +8516,7 @@
         <v>526</v>
       </c>
       <c r="D251" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E251">
         <v>2020</v>
@@ -8539,7 +8536,7 @@
         <v>526</v>
       </c>
       <c r="D252" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E252">
         <v>2017</v>
@@ -8559,7 +8556,7 @@
         <v>526</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E253" s="2">
         <v>2020</v>
@@ -8579,7 +8576,7 @@
         <v>526</v>
       </c>
       <c r="D254" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E254">
         <v>2017</v>
@@ -8599,7 +8596,7 @@
         <v>526</v>
       </c>
       <c r="D255" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E255">
         <v>2019</v>
@@ -8619,7 +8616,7 @@
         <v>526</v>
       </c>
       <c r="D256" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E256">
         <v>2017</v>
@@ -8639,7 +8636,7 @@
         <v>526</v>
       </c>
       <c r="D257" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E257">
         <v>2019</v>
@@ -8659,7 +8656,7 @@
         <v>526</v>
       </c>
       <c r="D258" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E258">
         <v>2017</v>
@@ -8679,7 +8676,7 @@
         <v>526</v>
       </c>
       <c r="D259" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E259">
         <v>2020</v>
@@ -8699,7 +8696,7 @@
         <v>653</v>
       </c>
       <c r="D260" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E260">
         <v>2020</v>
@@ -8719,7 +8716,7 @@
         <v>653</v>
       </c>
       <c r="D261" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E261">
         <v>2018</v>
@@ -8739,7 +8736,7 @@
         <v>653</v>
       </c>
       <c r="D262" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E262">
         <v>2017</v>
@@ -8759,7 +8756,7 @@
         <v>653</v>
       </c>
       <c r="D263" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E263">
         <v>2019</v>
@@ -8779,7 +8776,7 @@
         <v>653</v>
       </c>
       <c r="D264" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E264">
         <v>2018</v>
@@ -8799,7 +8796,7 @@
         <v>653</v>
       </c>
       <c r="D265" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E265">
         <v>2018</v>
@@ -8819,13 +8816,13 @@
         <v>653</v>
       </c>
       <c r="D266" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E266">
         <v>2017</v>
       </c>
       <c r="F266" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8839,7 +8836,7 @@
         <v>653</v>
       </c>
       <c r="D267" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E267">
         <v>2018</v>
@@ -8859,7 +8856,7 @@
         <v>653</v>
       </c>
       <c r="D268" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E268">
         <v>2017</v>
@@ -8879,7 +8876,7 @@
         <v>653</v>
       </c>
       <c r="D269" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E269">
         <v>2020</v>
@@ -8899,7 +8896,7 @@
         <v>653</v>
       </c>
       <c r="D270" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E270">
         <v>2017</v>
@@ -8919,7 +8916,7 @@
         <v>653</v>
       </c>
       <c r="D271" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E271">
         <v>2019</v>
@@ -8939,7 +8936,7 @@
         <v>653</v>
       </c>
       <c r="D272" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E272">
         <v>2020</v>
@@ -8959,7 +8956,7 @@
         <v>653</v>
       </c>
       <c r="D273" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E273">
         <v>2020</v>
@@ -8979,7 +8976,7 @@
         <v>653</v>
       </c>
       <c r="D274" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E274">
         <v>2019</v>
@@ -8999,7 +8996,7 @@
         <v>653</v>
       </c>
       <c r="D275" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E275">
         <v>2019</v>
@@ -9019,7 +9016,7 @@
         <v>653</v>
       </c>
       <c r="D276" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E276">
         <v>2017</v>
@@ -9039,7 +9036,7 @@
         <v>653</v>
       </c>
       <c r="D277" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E277">
         <v>2017</v>
@@ -9059,7 +9056,7 @@
         <v>653</v>
       </c>
       <c r="D278" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E278">
         <v>2020</v>
@@ -9079,7 +9076,7 @@
         <v>653</v>
       </c>
       <c r="D279" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E279">
         <v>2020</v>
@@ -9099,7 +9096,7 @@
         <v>653</v>
       </c>
       <c r="D280" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E280">
         <v>2019</v>
@@ -9119,13 +9116,13 @@
         <v>653</v>
       </c>
       <c r="D281" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E281">
         <v>2020</v>
       </c>
       <c r="F281" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9139,7 +9136,7 @@
         <v>653</v>
       </c>
       <c r="D282" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E282">
         <v>2017</v>
@@ -9159,7 +9156,7 @@
         <v>653</v>
       </c>
       <c r="D283" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E283">
         <v>2019</v>
@@ -9179,7 +9176,7 @@
         <v>653</v>
       </c>
       <c r="D284" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E284">
         <v>2020</v>
@@ -9199,7 +9196,7 @@
         <v>653</v>
       </c>
       <c r="D285" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E285">
         <v>2020</v>
@@ -9219,7 +9216,7 @@
         <v>653</v>
       </c>
       <c r="D286" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E286">
         <v>2018</v>
@@ -9239,13 +9236,13 @@
         <v>653</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E287" s="2">
         <v>2019</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9259,7 +9256,7 @@
         <v>653</v>
       </c>
       <c r="D288" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E288">
         <v>2019</v>
@@ -9279,7 +9276,7 @@
         <v>653</v>
       </c>
       <c r="D289" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E289">
         <v>2017</v>
@@ -9299,7 +9296,7 @@
         <v>653</v>
       </c>
       <c r="D290" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E290">
         <v>2018</v>
@@ -9319,7 +9316,7 @@
         <v>653</v>
       </c>
       <c r="D291" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E291">
         <v>2020</v>
@@ -9339,7 +9336,7 @@
         <v>653</v>
       </c>
       <c r="D292" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E292">
         <v>2018</v>
@@ -9359,7 +9356,7 @@
         <v>653</v>
       </c>
       <c r="D293" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E293">
         <v>2020</v>
@@ -9379,7 +9376,7 @@
         <v>653</v>
       </c>
       <c r="D294" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E294">
         <v>2020</v>
@@ -9399,13 +9396,13 @@
         <v>653</v>
       </c>
       <c r="D295" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E295">
         <v>2020</v>
       </c>
       <c r="F295" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9419,7 +9416,7 @@
         <v>653</v>
       </c>
       <c r="D296" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E296">
         <v>2020</v>
@@ -9439,7 +9436,7 @@
         <v>653</v>
       </c>
       <c r="D297" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E297">
         <v>2018</v>
@@ -9459,7 +9456,7 @@
         <v>653</v>
       </c>
       <c r="D298" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E298">
         <v>2019</v>
@@ -9479,7 +9476,7 @@
         <v>653</v>
       </c>
       <c r="D299" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E299">
         <v>2020</v>
@@ -9519,7 +9516,7 @@
         <v>653</v>
       </c>
       <c r="D301" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E301">
         <v>2019</v>
@@ -9539,13 +9536,13 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E302" s="2">
         <v>2020</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9559,7 +9556,7 @@
         <v>653</v>
       </c>
       <c r="D303" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E303">
         <v>2018</v>
@@ -9579,7 +9576,7 @@
         <v>653</v>
       </c>
       <c r="D304" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E304">
         <v>2020</v>
@@ -9599,7 +9596,7 @@
         <v>653</v>
       </c>
       <c r="D305" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E305">
         <v>2017</v>
@@ -9619,7 +9616,7 @@
         <v>653</v>
       </c>
       <c r="D306" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E306">
         <v>2020</v>
@@ -9639,7 +9636,7 @@
         <v>653</v>
       </c>
       <c r="D307" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E307">
         <v>2017</v>
@@ -9659,7 +9656,7 @@
         <v>653</v>
       </c>
       <c r="D308" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E308">
         <v>2017</v>
@@ -9679,7 +9676,7 @@
         <v>653</v>
       </c>
       <c r="D309" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E309">
         <v>2017</v>
@@ -9699,7 +9696,7 @@
         <v>653</v>
       </c>
       <c r="D310" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E310">
         <v>2020</v>
@@ -9719,7 +9716,7 @@
         <v>653</v>
       </c>
       <c r="D311" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E311">
         <v>2018</v>
@@ -9739,7 +9736,7 @@
         <v>686</v>
       </c>
       <c r="D312" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E312">
         <v>2018</v>
@@ -9759,7 +9756,7 @@
         <v>686</v>
       </c>
       <c r="D313" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E313">
         <v>2018</v>
@@ -9779,7 +9776,7 @@
         <v>686</v>
       </c>
       <c r="D314" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E314">
         <v>2017</v>
@@ -9799,7 +9796,7 @@
         <v>686</v>
       </c>
       <c r="D315" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E315">
         <v>2019</v>
@@ -9819,7 +9816,7 @@
         <v>686</v>
       </c>
       <c r="D316" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E316">
         <v>2017</v>
@@ -9839,13 +9836,13 @@
         <v>686</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E317" s="2">
         <v>2019</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9859,7 +9856,7 @@
         <v>686</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E318" s="2">
         <v>2019</v>
@@ -9879,13 +9876,13 @@
         <v>686</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E319" s="2">
         <v>2020</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9899,7 +9896,7 @@
         <v>686</v>
       </c>
       <c r="D320" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E320">
         <v>2019</v>
@@ -9919,7 +9916,7 @@
         <v>686</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E321" s="2">
         <v>2017</v>
@@ -9939,7 +9936,7 @@
         <v>686</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E322" s="2">
         <v>2018</v>
@@ -9959,7 +9956,7 @@
         <v>686</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E323" s="2">
         <v>2019</v>
@@ -9979,7 +9976,7 @@
         <v>686</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E324" s="2">
         <v>2018</v>
@@ -9999,7 +9996,7 @@
         <v>686</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E325" s="2">
         <v>2020</v>
@@ -10019,7 +10016,7 @@
         <v>686</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E326" s="2">
         <v>2020</v>
@@ -10059,7 +10056,7 @@
         <v>686</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E328" s="2">
         <v>2017</v>
@@ -10079,7 +10076,7 @@
         <v>686</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E329" s="2">
         <v>2020</v>
@@ -10099,7 +10096,7 @@
         <v>686</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E330" s="2">
         <v>2017</v>
@@ -10119,7 +10116,7 @@
         <v>686</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E331" s="2">
         <v>2019</v>
@@ -10139,7 +10136,7 @@
         <v>686</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E332" s="2">
         <v>2020</v>
@@ -10159,7 +10156,7 @@
         <v>686</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E333" s="2">
         <v>2019</v>
@@ -10179,7 +10176,7 @@
         <v>686</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E334" s="2">
         <v>2018</v>
@@ -10199,13 +10196,13 @@
         <v>686</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E335" s="2">
         <v>2018</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10219,7 +10216,7 @@
         <v>686</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E336" s="2">
         <v>2018</v>
@@ -10239,7 +10236,7 @@
         <v>686</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E337" s="2">
         <v>2018</v>
@@ -10259,7 +10256,7 @@
         <v>686</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E338" s="2">
         <v>2018</v>
@@ -10279,7 +10276,7 @@
         <v>686</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E339" s="2">
         <v>2018</v>
@@ -10299,7 +10296,7 @@
         <v>686</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E340" s="2">
         <v>2019</v>
@@ -10319,7 +10316,7 @@
         <v>686</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E341" s="2">
         <v>2020</v>
@@ -10339,7 +10336,7 @@
         <v>686</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E342" s="2">
         <v>2019</v>
@@ -10359,7 +10356,7 @@
         <v>686</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E343" s="2">
         <v>2018</v>
@@ -10379,7 +10376,7 @@
         <v>686</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E344" s="2">
         <v>2017</v>
@@ -10399,7 +10396,7 @@
         <v>686</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E345" s="2">
         <v>2018</v>
@@ -10419,7 +10416,7 @@
         <v>686</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E346" s="2">
         <v>2019</v>
@@ -10439,13 +10436,13 @@
         <v>686</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E347" s="2">
         <v>2020</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10459,7 +10456,7 @@
         <v>686</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E348" s="2">
         <v>2017</v>
@@ -10479,7 +10476,7 @@
         <v>686</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E349" s="2">
         <v>2017</v>
@@ -10499,7 +10496,7 @@
         <v>686</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E350" s="2">
         <v>2017</v>
@@ -10519,7 +10516,7 @@
         <v>686</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E351" s="2">
         <v>2017</v>
@@ -10539,13 +10536,13 @@
         <v>686</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E352" s="2">
         <v>2018</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10559,7 +10556,7 @@
         <v>686</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E353" s="2">
         <v>2020</v>
@@ -10579,7 +10576,7 @@
         <v>686</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E354" s="2">
         <v>2018</v>
@@ -10599,13 +10596,13 @@
         <v>686</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E355" s="2">
         <v>2020</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10619,7 +10616,7 @@
         <v>686</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E356" s="2">
         <v>2018</v>
@@ -10639,7 +10636,7 @@
         <v>686</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E357" s="2">
         <v>2018</v>
@@ -10659,7 +10656,7 @@
         <v>686</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E358" s="2">
         <v>2020</v>
@@ -10679,7 +10676,7 @@
         <v>686</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E359" s="2">
         <v>2019</v>
@@ -10699,7 +10696,7 @@
         <v>686</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E360" s="2">
         <v>2019</v>
@@ -10719,13 +10716,13 @@
         <v>686</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E361" s="2">
         <v>2017</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10739,7 +10736,7 @@
         <v>686</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E362" s="2">
         <v>2020</v>
@@ -10759,7 +10756,7 @@
         <v>686</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E363" s="2">
         <v>2018</v>
@@ -10779,13 +10776,13 @@
         <v>686</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E364" s="2">
         <v>2017</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10799,7 +10796,7 @@
         <v>686</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E365">
         <v>2020</v>
@@ -10819,7 +10816,7 @@
         <v>686</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E366">
         <v>2019</v>
@@ -10839,7 +10836,7 @@
         <v>686</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E367">
         <v>2017</v>
@@ -10859,7 +10856,7 @@
         <v>686</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E368">
         <v>2017</v>
@@ -10879,13 +10876,13 @@
         <v>686</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E369" s="2">
         <v>2017</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10899,7 +10896,7 @@
         <v>686</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E370">
         <v>2017</v>
@@ -10919,7 +10916,7 @@
         <v>686</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E371">
         <v>2019</v>
@@ -10939,7 +10936,7 @@
         <v>686</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E372">
         <v>2018</v>
@@ -10959,7 +10956,7 @@
         <v>686</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E373">
         <v>2018</v>
@@ -10979,7 +10976,7 @@
         <v>686</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E374">
         <v>2018</v>
@@ -10999,7 +10996,7 @@
         <v>686</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E375">
         <v>2020</v>
@@ -11019,13 +11016,13 @@
         <v>686</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E376" s="2">
         <v>2018</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11039,7 +11036,7 @@
         <v>686</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E377">
         <v>2017</v>
@@ -11059,7 +11056,7 @@
         <v>686</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E378">
         <v>2018</v>
@@ -11079,7 +11076,7 @@
         <v>686</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E379">
         <v>2020</v>
@@ -11099,7 +11096,7 @@
         <v>686</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E380">
         <v>2017</v>
@@ -11119,7 +11116,7 @@
         <v>686</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E381">
         <v>2017</v>
@@ -11139,7 +11136,7 @@
         <v>686</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E382">
         <v>2018</v>
@@ -11159,7 +11156,7 @@
         <v>686</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E383" s="2">
         <v>2017</v>
@@ -11179,7 +11176,7 @@
         <v>686</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E384">
         <v>2019</v>
@@ -11199,7 +11196,7 @@
         <v>686</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E385">
         <v>2019</v>
@@ -11219,13 +11216,13 @@
         <v>686</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E386" s="2">
         <v>2018</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11239,7 +11236,7 @@
         <v>686</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E387">
         <v>2018</v>
@@ -11259,7 +11256,7 @@
         <v>686</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E388">
         <v>2020</v>
@@ -11279,7 +11276,7 @@
         <v>686</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E389">
         <v>2020</v>
@@ -11299,7 +11296,7 @@
         <v>686</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E390">
         <v>2020</v>
@@ -11319,7 +11316,7 @@
         <v>686</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E391">
         <v>2017</v>
@@ -11339,7 +11336,7 @@
         <v>686</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E392">
         <v>2020</v>
@@ -11359,7 +11356,7 @@
         <v>686</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E393">
         <v>2019</v>
@@ -11379,7 +11376,7 @@
         <v>686</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E394">
         <v>2019</v>
@@ -11399,7 +11396,7 @@
         <v>686</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E395">
         <v>2020</v>
@@ -11416,10 +11413,10 @@
         <v>754</v>
       </c>
       <c r="C396" t="s">
-        <v>757</v>
+        <v>491</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E396">
         <v>2017</v>
@@ -11436,10 +11433,10 @@
         <v>132</v>
       </c>
       <c r="C397" t="s">
-        <v>757</v>
+        <v>686</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E397">
         <v>2017</v>
@@ -11456,10 +11453,10 @@
         <v>421</v>
       </c>
       <c r="C398" t="s">
-        <v>757</v>
+        <v>526</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E398">
         <v>2017</v>
@@ -11470,16 +11467,16 @@
     </row>
     <row r="399" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B399" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C399" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E399">
         <v>2020</v>
@@ -11490,16 +11487,16 @@
     </row>
     <row r="400" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B400" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C400" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E400">
         <v>2017</v>
@@ -11513,13 +11510,13 @@
         <v>374</v>
       </c>
       <c r="B401" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C401" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E401">
         <v>2018</v>
@@ -11530,16 +11527,16 @@
     </row>
     <row r="402" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B402" t="s">
         <v>441</v>
       </c>
       <c r="C402" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E402">
         <v>2020</v>
@@ -11550,16 +11547,16 @@
     </row>
     <row r="403" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B403" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C403" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E403">
         <v>2018</v>
@@ -11570,16 +11567,16 @@
     </row>
     <row r="404" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B404" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C404" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E404">
         <v>2018</v>
@@ -11590,16 +11587,16 @@
     </row>
     <row r="405" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B405" t="s">
         <v>142</v>
       </c>
       <c r="C405" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E405">
         <v>2017</v>

--- a/db/students.xlsx
+++ b/db/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="5055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1040">
   <si>
     <t>Last Name</t>
   </si>
@@ -3114,6 +3114,36 @@
   </si>
   <si>
     <t>mmcguinness</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -3491,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F405"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="G406" sqref="G406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,7 +3535,7 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3524,8 +3554,11 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3544,8 +3577,11 @@
       <c r="F2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3564,8 +3600,11 @@
       <c r="F3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3584,8 +3623,11 @@
       <c r="F4" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3604,8 +3646,11 @@
       <c r="F5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3624,8 +3669,11 @@
       <c r="F6" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3644,8 +3692,11 @@
       <c r="F7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3664,8 +3715,11 @@
       <c r="F8" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3684,8 +3738,11 @@
       <c r="F9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3704,8 +3761,11 @@
       <c r="F10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -3724,8 +3784,11 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -3744,8 +3807,11 @@
       <c r="F12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3764,8 +3830,11 @@
       <c r="F13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3784,8 +3853,11 @@
       <c r="F14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -3804,8 +3876,11 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -3824,8 +3899,11 @@
       <c r="F16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -3844,8 +3922,11 @@
       <c r="F17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3864,8 +3945,11 @@
       <c r="F18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -3884,8 +3968,11 @@
       <c r="F19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3904,8 +3991,11 @@
       <c r="F20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -3924,8 +4014,11 @@
       <c r="F21" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
@@ -3944,8 +4037,11 @@
       <c r="F22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -3964,8 +4060,11 @@
       <c r="F23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -3984,8 +4083,11 @@
       <c r="F24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -4004,8 +4106,11 @@
       <c r="F25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -4024,8 +4129,11 @@
       <c r="F26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -4044,8 +4152,11 @@
       <c r="F27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -4064,8 +4175,11 @@
       <c r="F28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -4084,8 +4198,11 @@
       <c r="F29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -4104,8 +4221,11 @@
       <c r="F30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -4124,8 +4244,11 @@
       <c r="F31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -4144,8 +4267,11 @@
       <c r="F32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -4164,8 +4290,11 @@
       <c r="F33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -4184,8 +4313,11 @@
       <c r="F34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -4204,8 +4336,11 @@
       <c r="F35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -4224,8 +4359,11 @@
       <c r="F36" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -4244,8 +4382,11 @@
       <c r="F37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -4264,8 +4405,11 @@
       <c r="F38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -4284,8 +4428,11 @@
       <c r="F39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
@@ -4304,8 +4451,11 @@
       <c r="F40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>98</v>
       </c>
@@ -4324,8 +4474,11 @@
       <c r="F41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
@@ -4344,8 +4497,11 @@
       <c r="F42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -4364,8 +4520,11 @@
       <c r="F43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -4384,8 +4543,11 @@
       <c r="F44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -4404,8 +4566,11 @@
       <c r="F45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
@@ -4424,8 +4589,11 @@
       <c r="F46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
@@ -4444,8 +4612,11 @@
       <c r="F47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
@@ -4464,8 +4635,11 @@
       <c r="F48" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -4484,8 +4658,11 @@
       <c r="F49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -4504,8 +4681,11 @@
       <c r="F50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>168</v>
       </c>
@@ -4524,8 +4704,11 @@
       <c r="F51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -4544,8 +4727,11 @@
       <c r="F52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -4564,8 +4750,11 @@
       <c r="F53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
@@ -4584,8 +4773,11 @@
       <c r="F54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -4604,8 +4796,11 @@
       <c r="F55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -4624,8 +4819,11 @@
       <c r="F56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>174</v>
       </c>
@@ -4644,8 +4842,11 @@
       <c r="F57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4664,8 +4865,11 @@
       <c r="F58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -4684,8 +4888,11 @@
       <c r="F59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
@@ -4704,8 +4911,11 @@
       <c r="F60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>178</v>
       </c>
@@ -4724,8 +4934,11 @@
       <c r="F61" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>179</v>
       </c>
@@ -4744,8 +4957,11 @@
       <c r="F62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -4764,8 +4980,11 @@
       <c r="F63" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>181</v>
       </c>
@@ -4784,8 +5003,11 @@
       <c r="F64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>182</v>
       </c>
@@ -4804,8 +5026,11 @@
       <c r="F65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
@@ -4824,8 +5049,11 @@
       <c r="F66" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -4844,8 +5072,11 @@
       <c r="F67" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
@@ -4864,8 +5095,11 @@
       <c r="F68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>185</v>
       </c>
@@ -4884,8 +5118,11 @@
       <c r="F69" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
@@ -4904,8 +5141,11 @@
       <c r="F70" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>187</v>
       </c>
@@ -4924,8 +5164,11 @@
       <c r="F71" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
@@ -4944,8 +5187,11 @@
       <c r="F72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
@@ -4964,8 +5210,11 @@
       <c r="F73" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>190</v>
       </c>
@@ -4984,8 +5233,11 @@
       <c r="F74" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>191</v>
       </c>
@@ -5004,8 +5256,11 @@
       <c r="F75" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
@@ -5024,8 +5279,11 @@
       <c r="F76" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>193</v>
       </c>
@@ -5044,8 +5302,11 @@
       <c r="F77" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
@@ -5064,8 +5325,11 @@
       <c r="F78" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>195</v>
       </c>
@@ -5084,8 +5348,11 @@
       <c r="F79" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>196</v>
       </c>
@@ -5104,8 +5371,11 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
@@ -5124,8 +5394,11 @@
       <c r="F81" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>198</v>
       </c>
@@ -5144,8 +5417,11 @@
       <c r="F82" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
@@ -5164,8 +5440,11 @@
       <c r="F83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>200</v>
       </c>
@@ -5184,8 +5463,11 @@
       <c r="F84" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>267</v>
       </c>
@@ -5204,8 +5486,11 @@
       <c r="F85" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>268</v>
       </c>
@@ -5224,8 +5509,11 @@
       <c r="F86" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5244,8 +5532,11 @@
       <c r="F87" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>270</v>
       </c>
@@ -5264,8 +5555,11 @@
       <c r="F88" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -5284,8 +5578,11 @@
       <c r="F89" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -5304,8 +5601,11 @@
       <c r="F90" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>273</v>
       </c>
@@ -5324,8 +5624,11 @@
       <c r="F91" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>274</v>
       </c>
@@ -5344,8 +5647,11 @@
       <c r="F92" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>275</v>
       </c>
@@ -5364,8 +5670,11 @@
       <c r="F93" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>276</v>
       </c>
@@ -5384,8 +5693,11 @@
       <c r="F94" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>277</v>
       </c>
@@ -5404,8 +5716,11 @@
       <c r="F95" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>278</v>
       </c>
@@ -5424,8 +5739,11 @@
       <c r="F96" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>279</v>
       </c>
@@ -5444,8 +5762,11 @@
       <c r="F97" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>280</v>
       </c>
@@ -5464,8 +5785,11 @@
       <c r="F98" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>281</v>
       </c>
@@ -5484,8 +5808,11 @@
       <c r="F99" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>282</v>
       </c>
@@ -5504,8 +5831,11 @@
       <c r="F100" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>283</v>
       </c>
@@ -5524,8 +5854,11 @@
       <c r="F101" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>284</v>
       </c>
@@ -5544,8 +5877,11 @@
       <c r="F102" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>285</v>
       </c>
@@ -5564,8 +5900,11 @@
       <c r="F103" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>286</v>
       </c>
@@ -5584,8 +5923,11 @@
       <c r="F104" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>287</v>
       </c>
@@ -5604,8 +5946,11 @@
       <c r="F105" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>288</v>
       </c>
@@ -5624,8 +5969,11 @@
       <c r="F106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>289</v>
       </c>
@@ -5644,8 +5992,11 @@
       <c r="F107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>290</v>
       </c>
@@ -5664,8 +6015,11 @@
       <c r="F108" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>291</v>
       </c>
@@ -5684,8 +6038,11 @@
       <c r="F109" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>292</v>
       </c>
@@ -5704,8 +6061,11 @@
       <c r="F110" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>293</v>
       </c>
@@ -5724,8 +6084,11 @@
       <c r="F111" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>294</v>
       </c>
@@ -5744,8 +6107,11 @@
       <c r="F112" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -5764,8 +6130,11 @@
       <c r="F113" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>296</v>
       </c>
@@ -5784,8 +6153,11 @@
       <c r="F114" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>297</v>
       </c>
@@ -5804,8 +6176,11 @@
       <c r="F115" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>30</v>
       </c>
@@ -5824,8 +6199,11 @@
       <c r="F116" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>298</v>
       </c>
@@ -5844,8 +6222,11 @@
       <c r="F117" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>299</v>
       </c>
@@ -5864,8 +6245,11 @@
       <c r="F118" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>300</v>
       </c>
@@ -5884,8 +6268,11 @@
       <c r="F119" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>196</v>
       </c>
@@ -5904,8 +6291,11 @@
       <c r="F120" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>301</v>
       </c>
@@ -5924,8 +6314,11 @@
       <c r="F121" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>389</v>
       </c>
@@ -5944,8 +6337,11 @@
       <c r="F122" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>388</v>
       </c>
@@ -5964,8 +6360,11 @@
       <c r="F123" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>387</v>
       </c>
@@ -5984,8 +6383,11 @@
       <c r="F124" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>386</v>
       </c>
@@ -6004,8 +6406,11 @@
       <c r="F125" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>385</v>
       </c>
@@ -6024,8 +6429,11 @@
       <c r="F126" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>384</v>
       </c>
@@ -6044,8 +6452,11 @@
       <c r="F127" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>383</v>
       </c>
@@ -6064,8 +6475,11 @@
       <c r="F128" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>382</v>
       </c>
@@ -6084,8 +6498,11 @@
       <c r="F129" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>381</v>
       </c>
@@ -6104,8 +6521,11 @@
       <c r="F130" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>380</v>
       </c>
@@ -6124,8 +6544,11 @@
       <c r="F131" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>379</v>
       </c>
@@ -6144,8 +6567,11 @@
       <c r="F132" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>378</v>
       </c>
@@ -6164,8 +6590,11 @@
       <c r="F133" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>377</v>
       </c>
@@ -6184,8 +6613,11 @@
       <c r="F134" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>376</v>
       </c>
@@ -6204,8 +6636,11 @@
       <c r="F135" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>375</v>
       </c>
@@ -6224,8 +6659,11 @@
       <c r="F136" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>374</v>
       </c>
@@ -6244,8 +6682,11 @@
       <c r="F137" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>373</v>
       </c>
@@ -6264,8 +6705,11 @@
       <c r="F138" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>372</v>
       </c>
@@ -6284,8 +6728,11 @@
       <c r="F139" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>290</v>
       </c>
@@ -6304,8 +6751,11 @@
       <c r="F140" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>371</v>
       </c>
@@ -6324,8 +6774,11 @@
       <c r="F141" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>94</v>
       </c>
@@ -6344,8 +6797,11 @@
       <c r="F142" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>370</v>
       </c>
@@ -6364,8 +6820,11 @@
       <c r="F143" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>369</v>
       </c>
@@ -6384,8 +6843,11 @@
       <c r="F144" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>368</v>
       </c>
@@ -6404,8 +6866,11 @@
       <c r="F145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>30</v>
       </c>
@@ -6424,8 +6889,11 @@
       <c r="F146" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>367</v>
       </c>
@@ -6444,8 +6912,11 @@
       <c r="F147" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>366</v>
       </c>
@@ -6464,8 +6935,11 @@
       <c r="F148" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>365</v>
       </c>
@@ -6484,8 +6958,11 @@
       <c r="F149" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>364</v>
       </c>
@@ -6504,8 +6981,11 @@
       <c r="F150" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>363</v>
       </c>
@@ -6524,8 +7004,11 @@
       <c r="F151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>449</v>
       </c>
@@ -6544,8 +7027,11 @@
       <c r="F152" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>450</v>
       </c>
@@ -6564,8 +7050,11 @@
       <c r="F153" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>451</v>
       </c>
@@ -6584,8 +7073,11 @@
       <c r="F154" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>452</v>
       </c>
@@ -6604,8 +7096,11 @@
       <c r="F155" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>453</v>
       </c>
@@ -6624,8 +7119,11 @@
       <c r="F156" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>454</v>
       </c>
@@ -6644,8 +7142,11 @@
       <c r="F157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>455</v>
       </c>
@@ -6664,8 +7165,11 @@
       <c r="F158" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>456</v>
       </c>
@@ -6684,8 +7188,11 @@
       <c r="F159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>457</v>
       </c>
@@ -6704,8 +7211,11 @@
       <c r="F160" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>457</v>
       </c>
@@ -6724,8 +7234,11 @@
       <c r="F161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>458</v>
       </c>
@@ -6744,8 +7257,11 @@
       <c r="F162" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>459</v>
       </c>
@@ -6764,8 +7280,11 @@
       <c r="F163" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>460</v>
       </c>
@@ -6784,8 +7303,11 @@
       <c r="F164" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G164" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>461</v>
       </c>
@@ -6804,8 +7326,11 @@
       <c r="F165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>462</v>
       </c>
@@ -6824,8 +7349,11 @@
       <c r="F166" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G166" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>786</v>
       </c>
@@ -6844,8 +7372,11 @@
       <c r="F167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G167" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>463</v>
       </c>
@@ -6864,8 +7395,11 @@
       <c r="F168" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G168" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>464</v>
       </c>
@@ -6884,8 +7418,11 @@
       <c r="F169" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G169" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>465</v>
       </c>
@@ -6904,8 +7441,11 @@
       <c r="F170" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G170" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>466</v>
       </c>
@@ -6924,8 +7464,11 @@
       <c r="F171" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G171" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>467</v>
       </c>
@@ -6944,8 +7487,11 @@
       <c r="F172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G172" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>468</v>
       </c>
@@ -6964,8 +7510,11 @@
       <c r="F173" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G173" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>469</v>
       </c>
@@ -6984,8 +7533,11 @@
       <c r="F174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G174" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>470</v>
       </c>
@@ -7004,8 +7556,11 @@
       <c r="F175" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G175" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>243</v>
       </c>
@@ -7024,8 +7579,11 @@
       <c r="F176" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G176" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>471</v>
       </c>
@@ -7044,8 +7602,11 @@
       <c r="F177" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G177" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -7064,8 +7625,11 @@
       <c r="F178" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G178" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>473</v>
       </c>
@@ -7084,8 +7648,11 @@
       <c r="F179" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G179" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>474</v>
       </c>
@@ -7104,8 +7671,11 @@
       <c r="F180" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G180" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>475</v>
       </c>
@@ -7124,8 +7694,11 @@
       <c r="F181" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G181" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>476</v>
       </c>
@@ -7144,8 +7717,11 @@
       <c r="F182" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G182" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>477</v>
       </c>
@@ -7164,8 +7740,11 @@
       <c r="F183" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G183" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>478</v>
       </c>
@@ -7184,8 +7763,11 @@
       <c r="F184" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G184" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>479</v>
       </c>
@@ -7204,8 +7786,11 @@
       <c r="F185" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G185" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>480</v>
       </c>
@@ -7224,8 +7809,11 @@
       <c r="F186" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>481</v>
       </c>
@@ -7244,8 +7832,11 @@
       <c r="F187" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G187" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>482</v>
       </c>
@@ -7264,8 +7855,11 @@
       <c r="F188" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G188" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>483</v>
       </c>
@@ -7284,8 +7878,11 @@
       <c r="F189" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G189" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>484</v>
       </c>
@@ -7304,8 +7901,11 @@
       <c r="F190" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G190" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>485</v>
       </c>
@@ -7324,8 +7924,11 @@
       <c r="F191" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>486</v>
       </c>
@@ -7344,8 +7947,11 @@
       <c r="F192" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G192" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>487</v>
       </c>
@@ -7364,8 +7970,11 @@
       <c r="F193" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G193" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>488</v>
       </c>
@@ -7384,8 +7993,11 @@
       <c r="F194" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G194" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>489</v>
       </c>
@@ -7404,8 +8016,11 @@
       <c r="F195" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G195" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>490</v>
       </c>
@@ -7424,8 +8039,11 @@
       <c r="F196" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G196" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>587</v>
       </c>
@@ -7444,8 +8062,11 @@
       <c r="F197" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G197" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>586</v>
       </c>
@@ -7464,8 +8085,11 @@
       <c r="F198" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G198" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>585</v>
       </c>
@@ -7484,8 +8108,11 @@
       <c r="F199" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G199" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>584</v>
       </c>
@@ -7504,8 +8131,11 @@
       <c r="F200" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G200" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>583</v>
       </c>
@@ -7524,8 +8154,11 @@
       <c r="F201" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G201" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>582</v>
       </c>
@@ -7544,8 +8177,11 @@
       <c r="F202" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G202" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>581</v>
       </c>
@@ -7564,8 +8200,11 @@
       <c r="F203" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G203" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>580</v>
       </c>
@@ -7584,8 +8223,11 @@
       <c r="F204" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G204" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>165</v>
       </c>
@@ -7604,8 +8246,11 @@
       <c r="F205" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G205" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>579</v>
       </c>
@@ -7624,8 +8269,11 @@
       <c r="F206" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G206" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>166</v>
       </c>
@@ -7644,8 +8292,11 @@
       <c r="F207" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G207" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>578</v>
       </c>
@@ -7664,8 +8315,11 @@
       <c r="F208" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G208" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>577</v>
       </c>
@@ -7684,8 +8338,11 @@
       <c r="F209" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G209" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>576</v>
       </c>
@@ -7704,8 +8361,11 @@
       <c r="F210" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G210" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>575</v>
       </c>
@@ -7724,8 +8384,11 @@
       <c r="F211" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G211" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>574</v>
       </c>
@@ -7744,8 +8407,11 @@
       <c r="F212" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G212" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>573</v>
       </c>
@@ -7764,8 +8430,11 @@
       <c r="F213" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G213" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>572</v>
       </c>
@@ -7784,8 +8453,11 @@
       <c r="F214" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G214" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>571</v>
       </c>
@@ -7804,8 +8476,11 @@
       <c r="F215" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G215" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>570</v>
       </c>
@@ -7824,8 +8499,11 @@
       <c r="F216" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G216" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>569</v>
       </c>
@@ -7844,8 +8522,11 @@
       <c r="F217" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G217" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>568</v>
       </c>
@@ -7864,8 +8545,11 @@
       <c r="F218" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G218" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>567</v>
       </c>
@@ -7884,8 +8568,11 @@
       <c r="F219" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>566</v>
       </c>
@@ -7904,8 +8591,11 @@
       <c r="F220" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G220" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>565</v>
       </c>
@@ -7924,8 +8614,11 @@
       <c r="F221" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>564</v>
       </c>
@@ -7944,8 +8637,11 @@
       <c r="F222" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G222" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>563</v>
       </c>
@@ -7964,8 +8660,11 @@
       <c r="F223" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G223" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>562</v>
       </c>
@@ -7984,8 +8683,11 @@
       <c r="F224" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G224" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>561</v>
       </c>
@@ -8004,8 +8706,11 @@
       <c r="F225" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G225" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>560</v>
       </c>
@@ -8024,8 +8729,11 @@
       <c r="F226" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G226" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>559</v>
       </c>
@@ -8044,8 +8752,11 @@
       <c r="F227" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G227" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>558</v>
       </c>
@@ -8064,8 +8775,11 @@
       <c r="F228" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>557</v>
       </c>
@@ -8084,8 +8798,11 @@
       <c r="F229" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G229" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>556</v>
       </c>
@@ -8104,8 +8821,11 @@
       <c r="F230" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G230" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>555</v>
       </c>
@@ -8124,8 +8844,11 @@
       <c r="F231" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G231" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>554</v>
       </c>
@@ -8144,8 +8867,11 @@
       <c r="F232" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>553</v>
       </c>
@@ -8164,8 +8890,11 @@
       <c r="F233" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G233" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>552</v>
       </c>
@@ -8184,8 +8913,11 @@
       <c r="F234" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G234" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>551</v>
       </c>
@@ -8204,8 +8936,11 @@
       <c r="F235" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G235" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>550</v>
       </c>
@@ -8224,8 +8959,11 @@
       <c r="F236" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G236" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>549</v>
       </c>
@@ -8244,8 +8982,11 @@
       <c r="F237" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G237" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>548</v>
       </c>
@@ -8264,8 +9005,11 @@
       <c r="F238" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G238" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>547</v>
       </c>
@@ -8284,8 +9028,11 @@
       <c r="F239" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G239" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>546</v>
       </c>
@@ -8304,8 +9051,11 @@
       <c r="F240" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G240" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>545</v>
       </c>
@@ -8324,8 +9074,11 @@
       <c r="F241" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G241" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>544</v>
       </c>
@@ -8344,8 +9097,11 @@
       <c r="F242" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G242" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>543</v>
       </c>
@@ -8364,8 +9120,11 @@
       <c r="F243" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G243" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>542</v>
       </c>
@@ -8384,8 +9143,11 @@
       <c r="F244" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G244" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>541</v>
       </c>
@@ -8404,8 +9166,11 @@
       <c r="F245" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G245" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>540</v>
       </c>
@@ -8424,8 +9189,11 @@
       <c r="F246" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G246" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>539</v>
       </c>
@@ -8444,8 +9212,11 @@
       <c r="F247" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G247" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>538</v>
       </c>
@@ -8464,8 +9235,11 @@
       <c r="F248" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>537</v>
       </c>
@@ -8484,8 +9258,11 @@
       <c r="F249" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G249" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>536</v>
       </c>
@@ -8504,8 +9281,11 @@
       <c r="F250" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>535</v>
       </c>
@@ -8524,8 +9304,11 @@
       <c r="F251" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G251" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>534</v>
       </c>
@@ -8544,8 +9327,11 @@
       <c r="F252" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G252" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>533</v>
       </c>
@@ -8564,8 +9350,11 @@
       <c r="F253" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G253" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>532</v>
       </c>
@@ -8584,8 +9373,11 @@
       <c r="F254" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G254" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>531</v>
       </c>
@@ -8604,8 +9396,11 @@
       <c r="F255" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G255" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>530</v>
       </c>
@@ -8624,8 +9419,11 @@
       <c r="F256" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G256" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>529</v>
       </c>
@@ -8644,8 +9442,11 @@
       <c r="F257" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G257" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>528</v>
       </c>
@@ -8664,8 +9465,11 @@
       <c r="F258" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G258" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>527</v>
       </c>
@@ -8684,8 +9488,11 @@
       <c r="F259" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G259" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>428</v>
       </c>
@@ -8704,8 +9511,11 @@
       <c r="F260" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G260" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>643</v>
       </c>
@@ -8724,8 +9534,11 @@
       <c r="F261" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G261" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>644</v>
       </c>
@@ -8744,8 +9557,11 @@
       <c r="F262" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G262" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>645</v>
       </c>
@@ -8764,8 +9580,11 @@
       <c r="F263" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G263" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>646</v>
       </c>
@@ -8784,8 +9603,11 @@
       <c r="F264" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G264" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>647</v>
       </c>
@@ -8804,8 +9626,11 @@
       <c r="F265" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G265" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>648</v>
       </c>
@@ -8824,8 +9649,11 @@
       <c r="F266" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G266" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
@@ -8844,8 +9672,11 @@
       <c r="F267" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G267" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>649</v>
       </c>
@@ -8864,8 +9695,11 @@
       <c r="F268" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G268" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>651</v>
       </c>
@@ -8884,8 +9718,11 @@
       <c r="F269" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G269" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>650</v>
       </c>
@@ -8904,8 +9741,11 @@
       <c r="F270" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G270" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>652</v>
       </c>
@@ -8924,8 +9764,11 @@
       <c r="F271" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G271" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>624</v>
       </c>
@@ -8944,8 +9787,11 @@
       <c r="F272" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G272" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>625</v>
       </c>
@@ -8964,8 +9810,11 @@
       <c r="F273" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G273" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>626</v>
       </c>
@@ -8984,8 +9833,11 @@
       <c r="F274" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G274" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>170</v>
       </c>
@@ -9004,8 +9856,11 @@
       <c r="F275" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G275" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>628</v>
       </c>
@@ -9024,8 +9879,11 @@
       <c r="F276" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G276" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>627</v>
       </c>
@@ -9044,8 +9902,11 @@
       <c r="F277" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G277" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>564</v>
       </c>
@@ -9064,8 +9925,11 @@
       <c r="F278" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G278" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>629</v>
       </c>
@@ -9084,8 +9948,11 @@
       <c r="F279" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G279" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>630</v>
       </c>
@@ -9104,8 +9971,11 @@
       <c r="F280" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G280" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>631</v>
       </c>
@@ -9124,8 +9994,11 @@
       <c r="F281" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G281" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>374</v>
       </c>
@@ -9144,8 +10017,11 @@
       <c r="F282" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G282" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>374</v>
       </c>
@@ -9164,8 +10040,11 @@
       <c r="F283" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G283" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>426</v>
       </c>
@@ -9184,8 +10063,11 @@
       <c r="F284" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G284" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>632</v>
       </c>
@@ -9204,8 +10086,11 @@
       <c r="F285" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G285" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>633</v>
       </c>
@@ -9224,8 +10109,11 @@
       <c r="F286" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G286" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>634</v>
       </c>
@@ -9244,8 +10132,11 @@
       <c r="F287" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G287" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>635</v>
       </c>
@@ -9264,8 +10155,11 @@
       <c r="F288" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G288" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>636</v>
       </c>
@@ -9284,8 +10178,11 @@
       <c r="F289" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G289" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>637</v>
       </c>
@@ -9304,8 +10201,11 @@
       <c r="F290" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G290" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>638</v>
       </c>
@@ -9324,8 +10224,11 @@
       <c r="F291" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G291" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>639</v>
       </c>
@@ -9344,8 +10247,11 @@
       <c r="F292" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G292" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>640</v>
       </c>
@@ -9364,8 +10270,11 @@
       <c r="F293" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G293" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>641</v>
       </c>
@@ -9384,8 +10293,11 @@
       <c r="F294" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G294" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>642</v>
       </c>
@@ -9404,8 +10316,11 @@
       <c r="F295" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G295" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>623</v>
       </c>
@@ -9424,8 +10339,11 @@
       <c r="F296" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G296" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>622</v>
       </c>
@@ -9444,8 +10362,11 @@
       <c r="F297" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G297" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>621</v>
       </c>
@@ -9464,8 +10385,11 @@
       <c r="F298" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G298" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>620</v>
       </c>
@@ -9484,8 +10408,11 @@
       <c r="F299" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G299" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>96</v>
       </c>
@@ -9504,8 +10431,11 @@
       <c r="F300" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G300" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>619</v>
       </c>
@@ -9524,8 +10454,11 @@
       <c r="F301" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G301" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>60</v>
       </c>
@@ -9544,8 +10477,11 @@
       <c r="F302" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G302" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>618</v>
       </c>
@@ -9564,8 +10500,11 @@
       <c r="F303" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G303" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>617</v>
       </c>
@@ -9584,8 +10523,11 @@
       <c r="F304" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G304" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>616</v>
       </c>
@@ -9604,8 +10546,11 @@
       <c r="F305" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G305" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>615</v>
       </c>
@@ -9624,8 +10569,11 @@
       <c r="F306" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G306" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>614</v>
       </c>
@@ -9644,8 +10592,11 @@
       <c r="F307" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G307" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>613</v>
       </c>
@@ -9664,8 +10615,11 @@
       <c r="F308" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G308" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>612</v>
       </c>
@@ -9684,8 +10638,11 @@
       <c r="F309" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G309" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>611</v>
       </c>
@@ -9704,8 +10661,11 @@
       <c r="F310" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G310" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>610</v>
       </c>
@@ -9724,8 +10684,11 @@
       <c r="F311" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G311" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>656</v>
       </c>
@@ -9744,8 +10707,11 @@
       <c r="F312" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G312" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>749</v>
       </c>
@@ -9764,8 +10730,11 @@
       <c r="F313" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G313" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>750</v>
       </c>
@@ -9784,8 +10753,11 @@
       <c r="F314" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G314" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>643</v>
       </c>
@@ -9804,8 +10776,11 @@
       <c r="F315" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>751</v>
       </c>
@@ -9824,8 +10799,11 @@
       <c r="F316" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>752</v>
       </c>
@@ -9844,8 +10822,11 @@
       <c r="F317" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>81</v>
       </c>
@@ -9864,8 +10845,11 @@
       <c r="F318" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G318" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>81</v>
       </c>
@@ -9884,8 +10868,11 @@
       <c r="F319" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G319" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>753</v>
       </c>
@@ -9904,8 +10891,11 @@
       <c r="F320" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>748</v>
       </c>
@@ -9924,8 +10914,11 @@
       <c r="F321" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>747</v>
       </c>
@@ -9944,8 +10937,11 @@
       <c r="F322" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G322" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>271</v>
       </c>
@@ -9964,8 +10960,11 @@
       <c r="F323" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>746</v>
       </c>
@@ -9984,8 +10983,11 @@
       <c r="F324" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>745</v>
       </c>
@@ -10004,8 +11006,11 @@
       <c r="F325" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>744</v>
       </c>
@@ -10024,8 +11029,11 @@
       <c r="F326" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>169</v>
       </c>
@@ -10044,8 +11052,11 @@
       <c r="F327" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>743</v>
       </c>
@@ -10064,8 +11075,11 @@
       <c r="F328" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>742</v>
       </c>
@@ -10084,8 +11098,11 @@
       <c r="F329" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G329" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>741</v>
       </c>
@@ -10104,8 +11121,11 @@
       <c r="F330" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G330" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>739</v>
       </c>
@@ -10124,8 +11144,11 @@
       <c r="F331" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G331" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>740</v>
       </c>
@@ -10144,8 +11167,11 @@
       <c r="F332" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G332" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>738</v>
       </c>
@@ -10164,8 +11190,11 @@
       <c r="F333" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>737</v>
       </c>
@@ -10184,8 +11213,11 @@
       <c r="F334" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>736</v>
       </c>
@@ -10204,8 +11236,11 @@
       <c r="F335" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>735</v>
       </c>
@@ -10224,8 +11259,11 @@
       <c r="F336" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>734</v>
       </c>
@@ -10244,8 +11282,11 @@
       <c r="F337" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>733</v>
       </c>
@@ -10264,8 +11305,11 @@
       <c r="F338" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>732</v>
       </c>
@@ -10284,8 +11328,11 @@
       <c r="F339" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>731</v>
       </c>
@@ -10304,8 +11351,11 @@
       <c r="F340" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>730</v>
       </c>
@@ -10324,8 +11374,11 @@
       <c r="F341" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G341" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>729</v>
       </c>
@@ -10344,8 +11397,11 @@
       <c r="F342" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G342" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>728</v>
       </c>
@@ -10364,8 +11420,11 @@
       <c r="F343" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G343" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>727</v>
       </c>
@@ -10384,8 +11443,11 @@
       <c r="F344" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>726</v>
       </c>
@@ -10404,8 +11466,11 @@
       <c r="F345" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G345" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>160</v>
       </c>
@@ -10424,8 +11489,11 @@
       <c r="F346" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G346" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>160</v>
       </c>
@@ -10444,8 +11512,11 @@
       <c r="F347" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G347" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>725</v>
       </c>
@@ -10464,8 +11535,11 @@
       <c r="F348" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G348" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>724</v>
       </c>
@@ -10484,8 +11558,11 @@
       <c r="F349" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>723</v>
       </c>
@@ -10504,8 +11581,11 @@
       <c r="F350" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>722</v>
       </c>
@@ -10524,8 +11604,11 @@
       <c r="F351" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>722</v>
       </c>
@@ -10544,8 +11627,11 @@
       <c r="F352" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>721</v>
       </c>
@@ -10564,8 +11650,11 @@
       <c r="F353" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G353" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>720</v>
       </c>
@@ -10584,8 +11673,11 @@
       <c r="F354" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>719</v>
       </c>
@@ -10604,8 +11696,11 @@
       <c r="F355" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>718</v>
       </c>
@@ -10624,8 +11719,11 @@
       <c r="F356" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G356" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>717</v>
       </c>
@@ -10644,8 +11742,11 @@
       <c r="F357" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G357" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>716</v>
       </c>
@@ -10664,8 +11765,11 @@
       <c r="F358" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G358" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>715</v>
       </c>
@@ -10684,8 +11788,11 @@
       <c r="F359" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G359" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>714</v>
       </c>
@@ -10704,8 +11811,11 @@
       <c r="F360" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G360" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>713</v>
       </c>
@@ -10724,8 +11834,11 @@
       <c r="F361" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G361" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>712</v>
       </c>
@@ -10744,8 +11857,11 @@
       <c r="F362" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G362" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>551</v>
       </c>
@@ -10764,8 +11880,11 @@
       <c r="F363" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G363" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>711</v>
       </c>
@@ -10784,8 +11903,11 @@
       <c r="F364" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G364" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>710</v>
       </c>
@@ -10804,8 +11926,11 @@
       <c r="F365" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G365" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>709</v>
       </c>
@@ -10824,8 +11949,11 @@
       <c r="F366" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G366" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>290</v>
       </c>
@@ -10844,8 +11972,11 @@
       <c r="F367" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G367" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>708</v>
       </c>
@@ -10864,8 +11995,11 @@
       <c r="F368" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G368" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>707</v>
       </c>
@@ -10884,8 +12018,11 @@
       <c r="F369" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G369" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>706</v>
       </c>
@@ -10904,8 +12041,11 @@
       <c r="F370" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G370" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>705</v>
       </c>
@@ -10924,8 +12064,11 @@
       <c r="F371" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G371" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>704</v>
       </c>
@@ -10944,8 +12087,11 @@
       <c r="F372" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G372" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>703</v>
       </c>
@@ -10964,8 +12110,11 @@
       <c r="F373" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G373" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>702</v>
       </c>
@@ -10984,8 +12133,11 @@
       <c r="F374" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G374" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>186</v>
       </c>
@@ -11004,8 +12156,11 @@
       <c r="F375" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G375" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>60</v>
       </c>
@@ -11024,8 +12179,11 @@
       <c r="F376" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G376" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>60</v>
       </c>
@@ -11044,8 +12202,11 @@
       <c r="F377" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G377" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>701</v>
       </c>
@@ -11064,8 +12225,11 @@
       <c r="F378" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G378" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>700</v>
       </c>
@@ -11084,8 +12248,11 @@
       <c r="F379" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G379" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>699</v>
       </c>
@@ -11104,8 +12271,11 @@
       <c r="F380" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G380" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>482</v>
       </c>
@@ -11124,8 +12294,11 @@
       <c r="F381" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G381" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>698</v>
       </c>
@@ -11144,8 +12317,11 @@
       <c r="F382" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G382" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>540</v>
       </c>
@@ -11164,8 +12340,11 @@
       <c r="F383" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G383" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>697</v>
       </c>
@@ -11184,8 +12363,11 @@
       <c r="F384" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G384" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>696</v>
       </c>
@@ -11204,8 +12386,11 @@
       <c r="F385" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G385" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>695</v>
       </c>
@@ -11224,8 +12409,11 @@
       <c r="F386" s="3" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G386" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>694</v>
       </c>
@@ -11244,8 +12432,11 @@
       <c r="F387" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G387" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>693</v>
       </c>
@@ -11264,8 +12455,11 @@
       <c r="F388" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G388" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>692</v>
       </c>
@@ -11284,8 +12478,11 @@
       <c r="F389" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G389" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>691</v>
       </c>
@@ -11304,8 +12501,11 @@
       <c r="F390" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G390" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>690</v>
       </c>
@@ -11324,8 +12524,11 @@
       <c r="F391" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G391" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>689</v>
       </c>
@@ -11344,8 +12547,11 @@
       <c r="F392" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G392" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>688</v>
       </c>
@@ -11364,8 +12570,11 @@
       <c r="F393" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G393" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>528</v>
       </c>
@@ -11384,8 +12593,11 @@
       <c r="F394" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G394" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>687</v>
       </c>
@@ -11404,8 +12616,11 @@
       <c r="F395" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G395" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>756</v>
       </c>
@@ -11424,8 +12639,11 @@
       <c r="F396" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G396" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>717</v>
       </c>
@@ -11444,8 +12662,11 @@
       <c r="F397" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G397" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>755</v>
       </c>
@@ -11464,8 +12685,11 @@
       <c r="F398" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G398" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>762</v>
       </c>
@@ -11484,8 +12708,11 @@
       <c r="F399" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G399" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>763</v>
       </c>
@@ -11504,8 +12731,11 @@
       <c r="F400" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G400" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>374</v>
       </c>
@@ -11524,8 +12754,11 @@
       <c r="F401" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G401" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>764</v>
       </c>
@@ -11544,8 +12777,11 @@
       <c r="F402" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G402" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>765</v>
       </c>
@@ -11564,8 +12800,11 @@
       <c r="F403" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G403" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>766</v>
       </c>
@@ -11584,8 +12823,11 @@
       <c r="F404" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G404" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>767</v>
       </c>
@@ -11604,6 +12846,21 @@
       <c r="F405" t="s">
         <v>208</v>
       </c>
+      <c r="G405" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G406" s="3"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G407" s="3"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G408" s="3"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G409" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
